--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="845">
   <si>
     <t>type</t>
   </si>
@@ -2552,6 +2552,30 @@
   </si>
   <si>
     <t>O &amp; M Frequency</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>Electric CVRMSE</t>
+  </si>
+  <si>
+    <t>Electric NMBE</t>
+  </si>
+  <si>
+    <t>Gas CVRMSE</t>
+  </si>
+  <si>
+    <t>Gas NMBE</t>
   </si>
 </sst>
 </file>
@@ -10279,9 +10303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11171,28 +11195,100 @@
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="30" t="s">
+        <v>842</v>
+      </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="30" t="s">
+        <v>843</v>
+      </c>
       <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="30" t="s">
+        <v>844</v>
+      </c>
       <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
@@ -11220,7 +11316,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="850">
   <si>
     <t>type</t>
   </si>
@@ -2576,6 +2576,21 @@
   </si>
   <si>
     <t>Gas NMBE</t>
+  </si>
+  <si>
+    <t>AdjustThermostatSetpointsByDegrees</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust Cooling Setpoint By</t>
+  </si>
+  <si>
+    <t>deg F</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust heating Setpoint By</t>
+  </si>
+  <si>
+    <t>Alter Design Day Thermostats</t>
   </si>
 </sst>
 </file>
@@ -6819,17 +6834,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6853,17 +6868,17 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6872,7 +6887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6881,7 +6896,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6892,7 +6907,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6914,7 +6929,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6925,7 +6940,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6944,7 +6959,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6963,7 +6978,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6976,7 +6991,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6985,7 +7000,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6996,7 +7011,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7007,7 +7022,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7018,7 +7033,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7029,7 +7044,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7040,7 +7055,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7051,7 +7066,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7075,7 +7090,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7083,7 +7098,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
@@ -7104,7 +7119,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -7116,7 +7131,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>564</v>
       </c>
@@ -7128,7 +7143,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>565</v>
       </c>
@@ -7140,7 +7155,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>566</v>
       </c>
@@ -7152,7 +7167,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>567</v>
       </c>
@@ -7164,7 +7179,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>568</v>
       </c>
@@ -7176,7 +7191,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>539</v>
       </c>
@@ -7186,7 +7201,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>541</v>
       </c>
@@ -7198,7 +7213,7 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>791</v>
       </c>
@@ -7210,22 +7225,22 @@
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7238,7 +7253,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7246,7 +7261,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7263,7 +7278,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7290,7 +7305,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7301,7 +7316,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7331,34 +7346,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105:XFD108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
@@ -7412,7 +7427,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7486,7 +7501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7505,7 +7520,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7522,7 +7537,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7539,7 +7554,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7558,7 +7573,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7583,7 +7598,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7606,7 +7621,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7624,7 +7639,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7642,7 +7657,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7660,7 +7675,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7679,7 +7694,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7700,7 +7715,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7736,7 +7751,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7753,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7792,7 +7807,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7809,7 +7824,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7826,7 +7841,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7843,7 +7858,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7860,7 +7875,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7877,7 +7892,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7894,7 +7909,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7911,7 +7926,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7928,7 +7943,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7945,7 +7960,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7962,7 +7977,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7979,7 +7994,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7996,7 +8011,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -8013,7 +8028,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -8032,7 +8047,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8048,7 +8063,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8067,7 +8082,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8103,7 +8118,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8139,7 +8154,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8158,7 +8173,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8197,7 +8212,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8216,7 +8231,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8254,7 +8269,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8282,7 +8297,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8304,7 +8319,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8323,7 +8338,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8361,7 +8376,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8389,7 +8404,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8411,7 +8426,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8430,7 +8445,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8468,7 +8483,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8496,7 +8511,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8518,7 +8533,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8537,7 +8552,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8575,7 +8590,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8603,7 +8618,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8625,7 +8640,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8644,7 +8659,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8662,7 +8677,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8680,7 +8695,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8698,7 +8713,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8716,7 +8731,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8735,7 +8750,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
@@ -8752,7 +8767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8788,7 +8803,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8805,7 +8820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8825,7 +8840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
@@ -8842,7 +8857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8878,7 +8893,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8895,7 +8910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8915,7 +8930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
@@ -8932,7 +8947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8968,7 +8983,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8985,7 +9000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9005,7 +9020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -9022,7 +9037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9043,7 +9058,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9079,7 +9094,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9097,7 +9112,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9115,7 +9130,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9133,7 +9148,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9150,7 +9165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9179,7 +9194,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9217,7 +9232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9243,7 +9258,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9269,7 +9284,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9295,7 +9310,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9321,7 +9336,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9347,7 +9362,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9373,7 +9388,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9399,7 +9414,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9416,7 +9431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9445,7 +9460,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9482,7 +9497,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9499,7 +9514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9536,7 +9551,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9553,7 +9568,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9590,7 +9605,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9607,7 +9622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9627,7 +9642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="2:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9667,7 +9682,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9687,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9707,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9727,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9744,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9764,7 +9779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9784,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9804,483 +9819,588 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+    </row>
+    <row r="106" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="H106" s="43">
+        <v>1</v>
+      </c>
+      <c r="I106" s="46"/>
+      <c r="J106" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K106" s="45">
+        <v>5</v>
+      </c>
+      <c r="L106" s="45">
+        <v>0</v>
+      </c>
+      <c r="M106" s="45">
+        <f>(K106-J106)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N106" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q106" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="H107" s="43">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="46"/>
+      <c r="J107" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K107" s="45">
+        <v>5</v>
+      </c>
+      <c r="L107" s="45">
+        <v>0</v>
+      </c>
+      <c r="M107" s="45">
+        <f>(K107-J107)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N107" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q107" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10303,22 +10423,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -10371,7 +10491,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10407,7 +10527,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10436,7 +10556,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10466,7 +10586,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10495,7 +10615,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10524,7 +10644,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10555,7 +10675,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10587,7 +10707,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10619,7 +10739,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10651,7 +10771,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10683,7 +10803,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10715,7 +10835,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10747,7 +10867,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10779,7 +10899,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10811,7 +10931,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10843,7 +10963,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10875,7 +10995,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -10906,7 +11026,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -10938,7 +11058,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -10970,7 +11090,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -11002,7 +11122,7 @@
       </c>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -11034,7 +11154,7 @@
       </c>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -11066,7 +11186,7 @@
       </c>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11098,7 +11218,7 @@
       </c>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11130,7 +11250,7 @@
       </c>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11162,7 +11282,7 @@
       </c>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11194,7 +11314,7 @@
       </c>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>841</v>
       </c>
@@ -11218,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>842</v>
       </c>
@@ -11242,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>843</v>
       </c>
@@ -11266,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>844</v>
       </c>
@@ -11290,25 +11410,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11333,16 +11453,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -12352,7 +12472,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12375,7 +12495,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12398,7 +12518,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12421,7 +12541,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12444,7 +12564,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12467,7 +12587,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12486,7 +12606,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12507,7 +12627,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12530,7 +12650,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12553,7 +12673,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12576,7 +12696,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12599,7 +12719,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12622,7 +12742,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12645,7 +12765,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12668,7 +12788,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12691,7 +12811,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12710,7 +12830,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12731,7 +12851,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12756,7 +12876,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12779,7 +12899,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12802,7 +12922,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12825,7 +12945,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12848,7 +12968,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12871,7 +12991,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12894,7 +13014,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12917,7 +13037,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12940,7 +13060,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12959,7 +13079,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12980,7 +13100,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13003,7 +13123,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13028,7 +13148,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13051,7 +13171,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13074,7 +13194,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13097,7 +13217,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13120,7 +13240,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13143,7 +13263,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13166,7 +13286,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13189,7 +13309,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13212,7 +13332,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13235,7 +13355,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13258,7 +13378,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13277,7 +13397,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13300,7 +13420,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13323,7 +13443,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13346,7 +13466,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13369,7 +13489,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13392,7 +13512,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13415,7 +13535,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13438,7 +13558,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13461,7 +13581,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13484,7 +13604,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13507,7 +13627,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13526,7 +13646,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13551,7 +13671,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13570,7 +13690,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13591,7 +13711,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13616,7 +13736,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13635,7 +13755,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13658,7 +13778,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13683,7 +13803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13706,7 +13826,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13727,7 +13847,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13746,7 +13866,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13771,7 +13891,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13794,7 +13914,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13817,7 +13937,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13840,7 +13960,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13863,7 +13983,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13886,7 +14006,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13909,7 +14029,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13928,7 +14048,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13951,7 +14071,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13974,7 +14094,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13997,7 +14117,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14016,7 +14136,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14039,7 +14159,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14062,7 +14182,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14085,7 +14205,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14108,7 +14228,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14131,7 +14251,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14154,7 +14274,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14173,7 +14293,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14198,7 +14318,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14221,7 +14341,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14244,7 +14364,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14267,7 +14387,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14290,7 +14410,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14313,7 +14433,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14336,7 +14456,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14359,7 +14479,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14382,7 +14502,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14401,7 +14521,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14426,7 +14546,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14447,7 +14567,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14470,7 +14590,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14493,7 +14613,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14516,7 +14636,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14539,7 +14659,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14562,7 +14682,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14585,7 +14705,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14608,7 +14728,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14631,7 +14751,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14654,7 +14774,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14677,7 +14797,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14700,7 +14820,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14723,7 +14843,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14742,7 +14862,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14765,7 +14885,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14784,7 +14904,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14807,7 +14927,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14830,7 +14950,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14849,7 +14969,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14874,7 +14994,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14897,7 +15017,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14920,7 +15040,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14943,7 +15063,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14966,7 +15086,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14989,7 +15109,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15012,7 +15132,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15035,7 +15155,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15058,7 +15178,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15081,7 +15201,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15100,7 +15220,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15125,7 +15245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15148,7 +15268,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15171,7 +15291,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15194,7 +15314,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15217,7 +15337,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15240,7 +15360,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15263,7 +15383,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15286,7 +15406,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15309,7 +15429,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15332,7 +15452,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15351,7 +15471,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15374,7 +15494,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15397,7 +15517,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15420,7 +15540,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15443,7 +15563,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15462,7 +15582,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15485,7 +15605,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15508,7 +15628,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15531,7 +15651,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15554,7 +15674,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15573,7 +15693,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15594,7 +15714,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15617,7 +15737,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15636,7 +15756,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15659,7 +15779,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15684,7 +15804,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15705,7 +15825,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15730,7 +15850,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15755,7 +15875,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15774,7 +15894,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15799,7 +15919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15822,7 +15942,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15845,7 +15965,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15868,7 +15988,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15891,7 +16011,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15914,7 +16034,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15937,7 +16057,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15960,7 +16080,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15983,7 +16103,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16002,7 +16122,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16027,7 +16147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16050,7 +16170,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16073,7 +16193,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16096,7 +16216,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16119,7 +16239,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16142,7 +16262,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16165,7 +16285,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16188,7 +16308,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16211,7 +16331,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16230,7 +16350,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16251,7 +16371,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16274,7 +16394,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16297,7 +16417,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16320,7 +16440,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16343,7 +16463,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16366,7 +16486,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16389,7 +16509,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16412,7 +16532,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16435,7 +16555,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16458,7 +16578,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16481,7 +16601,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16504,7 +16624,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16527,7 +16647,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16550,7 +16670,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16573,7 +16693,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16596,7 +16716,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16615,7 +16735,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16636,7 +16756,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16659,7 +16779,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16682,7 +16802,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16705,7 +16825,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16728,7 +16848,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16751,7 +16871,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16774,7 +16894,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16797,7 +16917,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16820,7 +16940,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16843,7 +16963,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16866,7 +16986,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16889,7 +17009,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16912,7 +17032,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16935,7 +17055,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16958,7 +17078,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16981,7 +17101,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17000,7 +17120,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17025,7 +17145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17048,7 +17168,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17071,7 +17191,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17094,7 +17214,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17117,7 +17237,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17136,7 +17256,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17161,7 +17281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17184,7 +17304,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17203,7 +17323,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17222,7 +17342,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17241,7 +17361,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17262,7 +17382,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17285,7 +17405,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17308,7 +17428,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17331,7 +17451,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17354,7 +17474,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17377,7 +17497,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17400,7 +17520,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17423,7 +17543,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17446,7 +17566,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17469,7 +17589,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17492,7 +17612,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17511,7 +17631,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17534,7 +17654,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17553,7 +17673,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17578,7 +17698,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17601,7 +17721,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17624,7 +17744,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17647,7 +17767,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17670,7 +17790,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17693,7 +17813,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17716,7 +17836,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17739,7 +17859,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17762,7 +17882,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17785,7 +17905,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17808,7 +17928,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17827,7 +17947,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17850,7 +17970,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17869,7 +17989,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17890,7 +18010,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17909,7 +18029,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17930,7 +18050,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17949,7 +18069,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17970,7 +18090,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17989,7 +18109,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18012,7 +18132,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18031,7 +18151,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18056,7 +18176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18079,7 +18199,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18102,7 +18222,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18125,7 +18245,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18148,7 +18268,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18171,7 +18291,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18194,7 +18314,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18217,7 +18337,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18240,7 +18360,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18259,7 +18379,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18282,7 +18402,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18305,7 +18425,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18328,7 +18448,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18351,7 +18471,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18370,7 +18490,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18393,7 +18513,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18416,7 +18536,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18441,7 +18561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18460,7 +18580,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18485,7 +18605,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18508,7 +18628,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18527,7 +18647,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18548,7 +18668,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18569,7 +18689,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18592,7 +18712,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18611,7 +18731,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18630,7 +18750,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18655,7 +18775,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18680,7 +18800,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18694,7 +18814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18717,7 +18837,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18737,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18757,7 +18877,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18777,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18794,7 +18914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18817,7 +18937,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18840,7 +18960,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18854,7 +18974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18877,7 +18997,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18900,7 +19020,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18920,7 +19040,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18940,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18957,7 +19077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18983,7 +19103,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19012,7 +19132,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19051,7 +19171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19065,7 +19185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19085,7 +19205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19099,7 +19219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19119,7 +19239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19139,7 +19259,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19159,7 +19279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19179,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19199,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19219,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19239,7 +19359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19259,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19279,7 +19399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19293,7 +19413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19313,7 +19433,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19333,7 +19453,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19349,7 +19469,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19375,7 +19495,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19416,7 +19536,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19430,7 +19550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19450,7 +19570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19464,7 +19584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19503,17 +19623,17 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19524,7 +19644,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19538,7 +19658,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19552,7 +19672,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19566,7 +19686,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19580,7 +19700,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19594,7 +19714,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19608,7 +19728,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19622,7 +19742,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19636,7 +19756,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19650,7 +19770,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19664,7 +19784,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19675,8 +19795,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19702,7 +19822,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19743,7 +19863,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19784,7 +19904,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19816,7 +19936,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19848,7 +19968,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19877,7 +19997,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19909,7 +20029,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19929,7 +20049,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19952,7 +20072,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19972,7 +20092,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19980,7 +20100,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6834,17 +6834,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6864,21 +6864,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6887,7 +6887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
@@ -7119,31 +7119,31 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>579</v>
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>564</v>
       </c>
       <c r="B25" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>578</v>
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>565</v>
       </c>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>566</v>
       </c>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>567</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>568</v>
       </c>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>539</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>541</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>791</v>
       </c>
@@ -7225,22 +7225,22 @@
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7346,34 +7346,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105:XFD108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
@@ -7427,7 +7427,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7573,7 +7573,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8063,7 +8063,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8319,7 +8319,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8404,7 +8404,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8426,7 +8426,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8533,7 +8533,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8750,7 +8750,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9194,7 +9194,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9258,7 +9258,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9284,7 +9284,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9310,7 +9310,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9336,7 +9336,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9362,7 +9362,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9388,7 +9388,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9414,7 +9414,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9460,7 +9460,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="b">
         <v>1</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B106" s="43" t="s">
         <v>21</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="43" t="s">
         <v>21</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
@@ -9940,467 +9940,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10428,17 +10428,17 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -10491,7 +10491,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.95" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10556,7 +10556,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10615,7 +10615,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10644,7 +10644,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10803,7 +10803,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10867,7 +10867,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -11026,7 +11026,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -11058,7 +11058,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>841</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>842</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>843</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>844</v>
       </c>
@@ -11410,25 +11410,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11453,16 +11453,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12606,7 +12606,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12627,7 +12627,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12830,7 +12830,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12851,7 +12851,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12876,7 +12876,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13037,7 +13037,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13060,7 +13060,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13079,7 +13079,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13100,7 +13100,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13148,7 +13148,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13397,7 +13397,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13420,7 +13420,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13646,7 +13646,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13671,7 +13671,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13711,7 +13711,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13736,7 +13736,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13755,7 +13755,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13803,7 +13803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13847,7 +13847,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13891,7 +13891,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13937,7 +13937,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14136,7 +14136,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14318,7 +14318,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14364,7 +14364,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14387,7 +14387,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14521,7 +14521,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14546,7 +14546,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14567,7 +14567,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14862,7 +14862,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14885,7 +14885,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14904,7 +14904,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14927,7 +14927,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14950,7 +14950,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14994,7 +14994,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15040,7 +15040,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15132,7 +15132,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15178,7 +15178,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15220,7 +15220,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15245,7 +15245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15471,7 +15471,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15563,7 +15563,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15582,7 +15582,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15674,7 +15674,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15693,7 +15693,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15714,7 +15714,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15756,7 +15756,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15804,7 +15804,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15825,7 +15825,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15850,7 +15850,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15875,7 +15875,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15894,7 +15894,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15919,7 +15919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15942,7 +15942,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15965,7 +15965,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15988,7 +15988,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16080,7 +16080,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16122,7 +16122,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16147,7 +16147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16216,7 +16216,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16262,7 +16262,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16350,7 +16350,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16371,7 +16371,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16394,7 +16394,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16440,7 +16440,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16463,7 +16463,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16532,7 +16532,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16670,7 +16670,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16756,7 +16756,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16779,7 +16779,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16848,7 +16848,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16963,7 +16963,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16986,7 +16986,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17032,7 +17032,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17055,7 +17055,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17078,7 +17078,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17120,7 +17120,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17145,7 +17145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17168,7 +17168,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17191,7 +17191,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17214,7 +17214,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17237,7 +17237,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17256,7 +17256,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17281,7 +17281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17304,7 +17304,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17323,7 +17323,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17342,7 +17342,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17361,7 +17361,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17382,7 +17382,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17405,7 +17405,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17520,7 +17520,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17543,7 +17543,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17566,7 +17566,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17631,7 +17631,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17673,7 +17673,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17698,7 +17698,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17721,7 +17721,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17813,7 +17813,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17859,7 +17859,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17947,7 +17947,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17970,7 +17970,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17989,7 +17989,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18010,7 +18010,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18029,7 +18029,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18050,7 +18050,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18069,7 +18069,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18090,7 +18090,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18109,7 +18109,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18151,7 +18151,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18176,7 +18176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18222,7 +18222,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18291,7 +18291,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18314,7 +18314,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18379,7 +18379,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18402,7 +18402,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18448,7 +18448,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18471,7 +18471,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18490,7 +18490,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18561,7 +18561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18580,7 +18580,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18605,7 +18605,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18628,7 +18628,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18647,7 +18647,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18668,7 +18668,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18689,7 +18689,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18712,7 +18712,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18731,7 +18731,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18750,7 +18750,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18775,7 +18775,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18800,7 +18800,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19103,7 +19103,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19132,7 +19132,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19171,7 +19171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19359,7 +19359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19469,7 +19469,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19495,7 +19495,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19536,7 +19536,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19623,17 +19623,17 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19795,8 +19795,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2756,7 +2756,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1832">
+  <cellStyleXfs count="1838">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4507,6 +4507,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4697,7 +4703,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1832">
+  <cellStyles count="1838">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5614,6 +5620,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1827" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1829" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1837" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6529,6 +6538,9 @@
     <cellStyle name="Hyperlink" xfId="1826" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1828" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1836" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6834,17 +6846,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6864,21 +6876,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6887,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6896,7 +6908,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6918,7 +6930,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6929,7 +6941,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6940,7 +6952,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6959,7 +6971,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6978,7 +6990,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6991,7 +7003,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7000,7 +7012,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7011,7 +7023,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7022,7 +7034,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7033,7 +7045,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7044,7 +7056,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7055,7 +7067,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7066,7 +7078,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7077,7 +7089,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7090,7 +7102,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7098,11 +7110,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7119,7 +7131,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -7131,7 +7143,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>564</v>
       </c>
@@ -7143,7 +7155,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>565</v>
       </c>
@@ -7155,7 +7167,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>566</v>
       </c>
@@ -7167,7 +7179,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>567</v>
       </c>
@@ -7179,7 +7191,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>568</v>
       </c>
@@ -7191,7 +7203,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
         <v>539</v>
       </c>
@@ -7201,7 +7213,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="A31" s="31" t="s">
         <v>541</v>
       </c>
@@ -7213,7 +7225,7 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="A32" s="31" t="s">
         <v>791</v>
       </c>
@@ -7225,22 +7237,22 @@
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7253,7 +7265,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7261,7 +7273,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7290,7 +7302,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7305,7 +7317,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7316,7 +7328,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7346,37 +7358,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105:XFD108"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7411,7 +7423,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7427,7 +7439,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7501,7 +7513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7520,7 +7532,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7537,7 +7549,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7554,7 +7566,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7573,7 +7585,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7598,7 +7610,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +7633,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7639,7 +7651,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7657,7 +7669,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7675,7 +7687,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7694,7 +7706,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7715,7 +7727,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7751,7 +7763,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7768,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="43" customFormat="1">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7807,7 +7819,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7841,7 +7853,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7875,7 +7887,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7892,7 +7904,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7909,7 +7921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7926,7 +7938,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7943,7 +7955,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7960,7 +7972,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7977,7 +7989,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7994,7 +8006,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -8011,7 +8023,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -8028,7 +8040,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -8047,7 +8059,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8063,7 +8075,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8082,7 +8094,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8118,7 +8130,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="43" customFormat="1">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8154,7 +8166,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8173,7 +8185,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8212,7 +8224,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8231,7 +8243,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8269,7 +8281,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8297,7 +8309,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8319,7 +8331,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8338,7 +8350,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8376,7 +8388,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8404,7 +8416,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8426,7 +8438,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8445,7 +8457,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8483,7 +8495,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8511,7 +8523,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8533,7 +8545,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8552,7 +8564,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8590,7 +8602,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8618,7 +8630,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8640,7 +8652,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8659,7 +8671,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8677,7 +8689,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8695,7 +8707,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8713,7 +8725,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8731,7 +8743,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8750,24 +8762,44 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="b">
+    <row r="60" spans="1:25" s="49" customFormat="1">
+      <c r="A60" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="50" t="s">
         <v>774</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
+    </row>
+    <row r="61" spans="1:25" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8803,7 +8835,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8820,7 +8852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8840,24 +8872,44 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="b">
+    <row r="64" spans="1:25" s="49" customFormat="1">
+      <c r="A64" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="50" t="s">
         <v>777</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+    </row>
+    <row r="65" spans="1:25" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8893,7 +8945,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8910,7 +8962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8930,24 +8982,44 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="49" t="b">
+    <row r="68" spans="1:25" s="49" customFormat="1">
+      <c r="A68" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+    </row>
+    <row r="69" spans="1:25" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8983,7 +9055,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -9000,7 +9072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9020,24 +9092,44 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49" t="b">
+    <row r="72" spans="1:25" s="49" customFormat="1">
+      <c r="A72" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E72" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="50"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="50"/>
+      <c r="W72" s="50"/>
+      <c r="X72" s="50"/>
+      <c r="Y72" s="50"/>
+    </row>
+    <row r="73" spans="1:25" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9058,7 +9150,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9094,7 +9186,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9112,7 +9204,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9130,7 +9222,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9148,7 +9240,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9165,7 +9257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9194,7 +9286,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9232,7 +9324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9258,7 +9350,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9284,7 +9376,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9310,7 +9402,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9336,7 +9428,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9362,7 +9454,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9388,7 +9480,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9414,7 +9506,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9431,7 +9523,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9460,7 +9552,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9497,7 +9589,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9514,7 +9606,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9551,7 +9643,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" s="50" customFormat="1">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9568,7 +9660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9605,7 +9697,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" s="50" customFormat="1">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9622,7 +9714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9642,7 +9734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9682,7 +9774,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9702,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9722,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9742,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" s="30" customFormat="1">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9759,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9779,7 +9871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9799,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9819,28 +9911,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="b">
+    <row r="105" spans="1:25" s="38" customFormat="1">
+      <c r="A105" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="50" t="s">
         <v>845</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="50" t="s">
         <v>845</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E105" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-    </row>
-    <row r="106" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="50"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="50"/>
+      <c r="Y105" s="50"/>
+    </row>
+    <row r="106" spans="1:25" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
         <v>846</v>
@@ -9878,9 +9988,9 @@
         <v>776</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
         <v>848</v>
@@ -9918,7 +10028,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
@@ -9940,467 +10050,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10423,25 +10533,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10456,7 +10566,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10491,7 +10601,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.95" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10527,7 +10637,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10556,7 +10666,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10586,7 +10696,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10615,7 +10725,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10644,7 +10754,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10675,7 +10785,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10707,7 +10817,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10739,7 +10849,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10771,7 +10881,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10803,7 +10913,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10835,7 +10945,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10867,7 +10977,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10899,7 +11009,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10931,7 +11041,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10963,7 +11073,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10995,7 +11105,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -11026,7 +11136,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -11058,7 +11168,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -11090,7 +11200,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -11122,7 +11232,7 @@
       </c>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -11154,7 +11264,7 @@
       </c>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -11186,7 +11296,7 @@
       </c>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11218,7 +11328,7 @@
       </c>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11250,7 +11360,7 @@
       </c>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11282,7 +11392,7 @@
       </c>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11314,7 +11424,7 @@
       </c>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>841</v>
       </c>
@@ -11338,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
         <v>842</v>
       </c>
@@ -11362,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
         <v>843</v>
       </c>
@@ -11386,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
         <v>844</v>
       </c>
@@ -11410,25 +11520,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11436,7 +11546,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11453,19 +11563,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11484,7 +11594,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11505,7 +11615,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11528,7 +11638,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11551,7 +11661,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11574,7 +11684,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11597,7 +11707,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11620,7 +11730,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11643,7 +11753,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11666,7 +11776,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11689,7 +11799,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11708,7 +11818,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11729,7 +11839,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11752,7 +11862,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11775,7 +11885,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11798,7 +11908,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11821,7 +11931,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11844,7 +11954,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11867,7 +11977,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11890,7 +12000,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11913,7 +12023,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11932,7 +12042,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11955,7 +12065,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11978,7 +12088,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12001,7 +12111,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12024,7 +12134,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12047,7 +12157,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12070,7 +12180,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12093,7 +12203,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12116,7 +12226,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12139,7 +12249,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12158,7 +12268,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12179,7 +12289,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12202,7 +12312,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12225,7 +12335,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12248,7 +12358,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12271,7 +12381,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12294,7 +12404,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12317,7 +12427,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12340,7 +12450,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12363,7 +12473,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12382,7 +12492,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12403,7 +12513,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12426,7 +12536,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12449,7 +12559,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12472,7 +12582,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12495,7 +12605,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12518,7 +12628,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12541,7 +12651,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12564,7 +12674,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12587,7 +12697,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12606,7 +12716,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12627,7 +12737,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12650,7 +12760,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12673,7 +12783,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12696,7 +12806,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12719,7 +12829,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12742,7 +12852,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12765,7 +12875,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12788,7 +12898,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12811,7 +12921,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12830,7 +12940,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12851,7 +12961,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12876,7 +12986,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12899,7 +13009,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12922,7 +13032,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12945,7 +13055,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12968,7 +13078,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12991,7 +13101,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13014,7 +13124,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13037,7 +13147,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13060,7 +13170,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13079,7 +13189,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13100,7 +13210,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13123,7 +13233,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13148,7 +13258,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13171,7 +13281,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13194,7 +13304,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13217,7 +13327,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13240,7 +13350,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13263,7 +13373,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13286,7 +13396,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13309,7 +13419,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13332,7 +13442,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13355,7 +13465,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13378,7 +13488,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13397,7 +13507,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13420,7 +13530,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13443,7 +13553,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13466,7 +13576,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13489,7 +13599,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13512,7 +13622,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13535,7 +13645,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13558,7 +13668,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13581,7 +13691,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13604,7 +13714,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13627,7 +13737,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13646,7 +13756,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13671,7 +13781,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13690,7 +13800,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13711,7 +13821,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13736,7 +13846,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13755,7 +13865,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13778,7 +13888,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13803,7 +13913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13826,7 +13936,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13847,7 +13957,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13866,7 +13976,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13891,7 +14001,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13914,7 +14024,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13937,7 +14047,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13960,7 +14070,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13983,7 +14093,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14006,7 +14116,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14029,7 +14139,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14048,7 +14158,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14071,7 +14181,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14094,7 +14204,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14117,7 +14227,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14136,7 +14246,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14159,7 +14269,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14182,7 +14292,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14205,7 +14315,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14228,7 +14338,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14251,7 +14361,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14274,7 +14384,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14293,7 +14403,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14318,7 +14428,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14341,7 +14451,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14364,7 +14474,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14387,7 +14497,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14410,7 +14520,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14433,7 +14543,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14456,7 +14566,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14479,7 +14589,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14502,7 +14612,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14521,7 +14631,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14546,7 +14656,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14567,7 +14677,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14590,7 +14700,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14613,7 +14723,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14636,7 +14746,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14659,7 +14769,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14682,7 +14792,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14705,7 +14815,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14728,7 +14838,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14751,7 +14861,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14774,7 +14884,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14797,7 +14907,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14820,7 +14930,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14843,7 +14953,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14862,7 +14972,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14885,7 +14995,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14904,7 +15014,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14927,7 +15037,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14950,7 +15060,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14969,7 +15079,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14994,7 +15104,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15017,7 +15127,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15040,7 +15150,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15063,7 +15173,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15086,7 +15196,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15109,7 +15219,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15132,7 +15242,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15155,7 +15265,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15178,7 +15288,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15201,7 +15311,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15220,7 +15330,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15245,7 +15355,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15268,7 +15378,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15291,7 +15401,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15314,7 +15424,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15337,7 +15447,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15360,7 +15470,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15383,7 +15493,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15406,7 +15516,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15429,7 +15539,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15452,7 +15562,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15471,7 +15581,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15494,7 +15604,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15517,7 +15627,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15540,7 +15650,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15563,7 +15673,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15582,7 +15692,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15605,7 +15715,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15628,7 +15738,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15651,7 +15761,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15674,7 +15784,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15693,7 +15803,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15714,7 +15824,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15737,7 +15847,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15756,7 +15866,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15779,7 +15889,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15804,7 +15914,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15825,7 +15935,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15850,7 +15960,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15875,7 +15985,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15894,7 +16004,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15919,7 +16029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15942,7 +16052,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15965,7 +16075,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15988,7 +16098,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16011,7 +16121,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16034,7 +16144,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16057,7 +16167,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16080,7 +16190,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16103,7 +16213,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16122,7 +16232,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16147,7 +16257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16170,7 +16280,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16193,7 +16303,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16216,7 +16326,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16239,7 +16349,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16262,7 +16372,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16285,7 +16395,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16308,7 +16418,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16331,7 +16441,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16350,7 +16460,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16371,7 +16481,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16394,7 +16504,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16417,7 +16527,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16440,7 +16550,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16463,7 +16573,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16486,7 +16596,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16509,7 +16619,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16532,7 +16642,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16555,7 +16665,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16578,7 +16688,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16601,7 +16711,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16624,7 +16734,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16647,7 +16757,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16670,7 +16780,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16693,7 +16803,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16716,7 +16826,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16735,7 +16845,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16756,7 +16866,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16779,7 +16889,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16802,7 +16912,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16825,7 +16935,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16848,7 +16958,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16871,7 +16981,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16894,7 +17004,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16917,7 +17027,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16940,7 +17050,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16963,7 +17073,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16986,7 +17096,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17009,7 +17119,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17032,7 +17142,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17055,7 +17165,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17078,7 +17188,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17101,7 +17211,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17120,7 +17230,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17145,7 +17255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17168,7 +17278,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17191,7 +17301,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17214,7 +17324,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17237,7 +17347,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17256,7 +17366,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17281,7 +17391,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17304,7 +17414,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17323,7 +17433,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17342,7 +17452,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17361,7 +17471,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17382,7 +17492,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17405,7 +17515,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17428,7 +17538,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17451,7 +17561,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17474,7 +17584,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17497,7 +17607,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17520,7 +17630,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17543,7 +17653,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17566,7 +17676,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17589,7 +17699,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17612,7 +17722,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17631,7 +17741,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17654,7 +17764,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17673,7 +17783,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17698,7 +17808,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17721,7 +17831,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17744,7 +17854,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17767,7 +17877,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17790,7 +17900,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17813,7 +17923,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17836,7 +17946,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17859,7 +17969,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17882,7 +17992,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17905,7 +18015,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17928,7 +18038,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17947,7 +18057,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17970,7 +18080,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17989,7 +18099,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18010,7 +18120,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18029,7 +18139,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18050,7 +18160,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18069,7 +18179,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18090,7 +18200,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18109,7 +18219,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18132,7 +18242,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18151,7 +18261,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18176,7 +18286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18199,7 +18309,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18222,7 +18332,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18245,7 +18355,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18268,7 +18378,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18291,7 +18401,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18314,7 +18424,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18337,7 +18447,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18360,7 +18470,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18379,7 +18489,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18402,7 +18512,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18425,7 +18535,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18448,7 +18558,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18471,7 +18581,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18490,7 +18600,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18513,7 +18623,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18536,7 +18646,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18561,7 +18671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18580,7 +18690,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18605,7 +18715,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18628,7 +18738,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18647,7 +18757,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18668,7 +18778,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18689,7 +18799,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18712,7 +18822,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18731,7 +18841,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18750,7 +18860,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18775,7 +18885,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18800,7 +18910,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18814,7 +18924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18837,7 +18947,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18857,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18877,7 +18987,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18897,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18914,7 +19024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18937,7 +19047,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18960,7 +19070,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18974,7 +19084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18997,7 +19107,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -19020,7 +19130,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -19040,7 +19150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19060,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19103,7 +19213,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19132,7 +19242,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19171,7 +19281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19185,7 +19295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19205,7 +19315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19219,7 +19329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19239,7 +19349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19259,7 +19369,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19279,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19299,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19319,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19339,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19359,7 +19469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19379,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19399,7 +19509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19413,7 +19523,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19433,7 +19543,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19453,7 +19563,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19469,7 +19579,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19495,7 +19605,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19536,7 +19646,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19550,7 +19660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19570,7 +19680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19584,7 +19694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19623,17 +19733,17 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19644,7 +19754,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19658,7 +19768,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19672,7 +19782,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19686,7 +19796,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19700,7 +19810,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19714,7 +19824,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19728,7 +19838,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19742,7 +19852,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19756,7 +19866,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19770,7 +19880,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19784,7 +19894,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19795,8 +19905,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19822,7 +19932,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19863,7 +19973,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19904,7 +20014,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19936,7 +20046,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19968,7 +20078,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19997,7 +20107,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -20029,7 +20139,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20049,7 +20159,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -20072,7 +20182,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20092,7 +20202,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20100,7 +20210,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -6846,17 +6846,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6880,17 +6880,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6899,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7110,11 +7110,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>564</v>
       </c>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>565</v>
       </c>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>566</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>567</v>
       </c>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>568</v>
       </c>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>539</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>541</v>
       </c>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>791</v>
       </c>
@@ -7237,22 +7237,22 @@
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7358,37 +7358,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7423,7 +7423,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7633,7 +7633,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1">
+    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1">
+    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1">
+    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1">
+    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1">
+    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1">
+    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1">
+    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1">
+    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1">
+    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1">
+    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1">
+    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1">
+    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1">
+    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1">
+    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1">
+    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1">
+    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -8059,7 +8059,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1">
+    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1">
+    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1">
+    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1">
+    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1">
+    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1">
+    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1">
+    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8457,7 +8457,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8523,7 +8523,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8545,7 +8545,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:25" s="38" customFormat="1">
+    <row r="50" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8564,7 +8564,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8652,7 +8652,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:25" s="38" customFormat="1">
+    <row r="54" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:25" s="38" customFormat="1">
+    <row r="59" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:25" s="49" customFormat="1">
+    <row r="60" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="b">
         <v>1</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="X60" s="50"/>
       <c r="Y60" s="50"/>
     </row>
-    <row r="61" spans="1:25" s="43" customFormat="1">
+    <row r="61" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="30" customFormat="1">
+    <row r="62" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="30" customFormat="1">
+    <row r="63" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="49" customFormat="1">
+    <row r="64" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="b">
         <v>1</v>
       </c>
@@ -8909,7 +8909,7 @@
       <c r="X64" s="50"/>
       <c r="Y64" s="50"/>
     </row>
-    <row r="65" spans="1:25" s="43" customFormat="1">
+    <row r="65" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="30" customFormat="1">
+    <row r="66" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="30" customFormat="1">
+    <row r="67" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:25" s="49" customFormat="1">
+    <row r="68" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="50" t="b">
         <v>1</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="X68" s="50"/>
       <c r="Y68" s="50"/>
     </row>
-    <row r="69" spans="1:25" s="43" customFormat="1">
+    <row r="69" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:25" s="30" customFormat="1">
+    <row r="70" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="30" customFormat="1">
+    <row r="71" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="49" customFormat="1">
+    <row r="72" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50" t="b">
         <v>1</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="X72" s="50"/>
       <c r="Y72" s="50"/>
     </row>
-    <row r="73" spans="1:25" s="30" customFormat="1">
+    <row r="73" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:25" s="43" customFormat="1">
+    <row r="74" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:25" s="30" customFormat="1">
+    <row r="75" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:25" s="30" customFormat="1">
+    <row r="76" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:25" s="30" customFormat="1">
+    <row r="77" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:25" s="50" customFormat="1">
+    <row r="78" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9286,7 +9286,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:25" s="43" customFormat="1">
+    <row r="80" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9350,7 +9350,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9376,7 +9376,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9402,7 +9402,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9428,7 +9428,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9454,7 +9454,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9480,7 +9480,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9506,7 +9506,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
+    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9552,7 +9552,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
+    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1">
+    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
+    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
+    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
+    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
+    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
+    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="43" customFormat="1">
+    <row r="97" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="30" customFormat="1">
+    <row r="98" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="30" customFormat="1">
+    <row r="99" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="30" customFormat="1">
+    <row r="100" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" s="30" customFormat="1">
+    <row r="101" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="30" customFormat="1">
+    <row r="102" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:25" s="30" customFormat="1">
+    <row r="103" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" s="30" customFormat="1">
+    <row r="104" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="38" customFormat="1">
+    <row r="105" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="50" t="b">
         <v>1</v>
       </c>
@@ -9948,7 +9948,7 @@
       <c r="X105" s="50"/>
       <c r="Y105" s="50"/>
     </row>
-    <row r="106" spans="1:25" s="43" customFormat="1">
+    <row r="106" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
@@ -9969,26 +9969,26 @@
       </c>
       <c r="I106" s="46"/>
       <c r="J106" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K106" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L106" s="45">
         <v>0</v>
       </c>
       <c r="M106" s="45">
         <f>(K106-J106)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N106" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="107" spans="1:25" s="43" customFormat="1">
+    <row r="107" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
@@ -10009,26 +10009,26 @@
       </c>
       <c r="I107" s="46"/>
       <c r="J107" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K107" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L107" s="45">
         <v>0</v>
       </c>
       <c r="M107" s="45">
         <f>(K107-J107)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N107" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
@@ -10050,467 +10050,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10538,20 +10538,20 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10566,7 +10566,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10666,7 +10666,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10696,7 +10696,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10725,7 +10725,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10785,7 +10785,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -11136,7 +11136,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -11296,7 +11296,7 @@
       </c>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>841</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>842</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>843</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>844</v>
       </c>
@@ -11520,25 +11520,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11563,19 +11563,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11594,7 +11594,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11615,7 +11615,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11839,7 +11839,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12042,7 +12042,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12134,7 +12134,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12268,7 +12268,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12289,7 +12289,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12492,7 +12492,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12513,7 +12513,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12716,7 +12716,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12737,7 +12737,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12760,7 +12760,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12940,7 +12940,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12961,7 +12961,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12986,7 +12986,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13189,7 +13189,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13210,7 +13210,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13258,7 +13258,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13507,7 +13507,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13576,7 +13576,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13756,7 +13756,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13781,7 +13781,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13800,7 +13800,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13821,7 +13821,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13846,7 +13846,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13913,7 +13913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13957,7 +13957,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13976,7 +13976,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14001,7 +14001,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14047,7 +14047,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14158,7 +14158,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14246,7 +14246,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14269,7 +14269,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14292,7 +14292,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14403,7 +14403,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14428,7 +14428,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14451,7 +14451,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14474,7 +14474,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14566,7 +14566,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14589,7 +14589,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14631,7 +14631,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14656,7 +14656,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14677,7 +14677,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14700,7 +14700,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14769,7 +14769,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14930,7 +14930,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14972,7 +14972,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15014,7 +15014,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15079,7 +15079,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15104,7 +15104,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15219,7 +15219,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15242,7 +15242,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15288,7 +15288,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15355,7 +15355,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15378,7 +15378,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15424,7 +15424,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15470,7 +15470,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15539,7 +15539,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15581,7 +15581,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15604,7 +15604,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15650,7 +15650,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15803,7 +15803,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15824,7 +15824,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15847,7 +15847,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15866,7 +15866,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15914,7 +15914,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15935,7 +15935,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15960,7 +15960,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15985,7 +15985,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16004,7 +16004,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16029,7 +16029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16167,7 +16167,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16232,7 +16232,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16257,7 +16257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16303,7 +16303,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16349,7 +16349,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16372,7 +16372,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16418,7 +16418,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16460,7 +16460,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16481,7 +16481,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16845,7 +16845,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16866,7 +16866,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16912,7 +16912,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17004,7 +17004,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17050,7 +17050,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17188,7 +17188,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17230,7 +17230,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17255,7 +17255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17324,7 +17324,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17347,7 +17347,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17366,7 +17366,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17391,7 +17391,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17414,7 +17414,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17433,7 +17433,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17452,7 +17452,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17471,7 +17471,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17492,7 +17492,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17561,7 +17561,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17607,7 +17607,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17630,7 +17630,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17653,7 +17653,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17699,7 +17699,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17722,7 +17722,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17741,7 +17741,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17764,7 +17764,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17783,7 +17783,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17808,7 +17808,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17831,7 +17831,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17854,7 +17854,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17900,7 +17900,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17946,7 +17946,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17969,7 +17969,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18038,7 +18038,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18057,7 +18057,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18099,7 +18099,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18120,7 +18120,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18139,7 +18139,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18160,7 +18160,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18179,7 +18179,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18200,7 +18200,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18219,7 +18219,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18261,7 +18261,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18286,7 +18286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18309,7 +18309,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18332,7 +18332,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18378,7 +18378,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18401,7 +18401,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18447,7 +18447,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18470,7 +18470,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18489,7 +18489,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18512,7 +18512,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18600,7 +18600,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18623,7 +18623,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18646,7 +18646,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18671,7 +18671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18690,7 +18690,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18715,7 +18715,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18738,7 +18738,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18757,7 +18757,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18778,7 +18778,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18799,7 +18799,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18822,7 +18822,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18841,7 +18841,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18860,7 +18860,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18885,7 +18885,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18910,7 +18910,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19213,7 +19213,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19242,7 +19242,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19281,7 +19281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19579,7 +19579,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19605,7 +19605,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19646,7 +19646,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19733,17 +19733,17 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19852,7 +19852,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19905,8 +19905,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2014,9 +2014,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2591,6 +2588,9 @@
   </si>
   <si>
     <t>Alter Design Day Thermostats</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2665,6 +2665,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4596,7 +4601,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4702,6 +4707,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1838">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6846,17 +6852,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6880,17 +6886,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6899,7 +6905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6908,7 +6914,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6919,18 +6925,18 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6941,18 +6947,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6971,7 +6977,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6990,7 +6996,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7012,40 +7018,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7078,7 +7084,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7102,7 +7108,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7110,11 +7116,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7131,7 +7137,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -7143,7 +7149,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>564</v>
       </c>
@@ -7155,7 +7161,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>565</v>
       </c>
@@ -7167,7 +7173,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>566</v>
       </c>
@@ -7179,7 +7185,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>567</v>
       </c>
@@ -7191,7 +7197,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>568</v>
       </c>
@@ -7203,7 +7209,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
         <v>539</v>
       </c>
@@ -7213,7 +7219,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="A31" s="31" t="s">
         <v>541</v>
       </c>
@@ -7225,39 +7231,39 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="A32" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B32" s="30">
         <v>1</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7265,15 +7271,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7284,25 +7290,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7310,25 +7316,25 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7358,37 +7364,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7423,7 +7429,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7439,7 +7445,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7513,18 +7519,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>733</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7532,46 +7538,46 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>770</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>771</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>648</v>
@@ -7585,7 +7591,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7599,7 +7605,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7610,7 +7616,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>657</v>
+        <v>849</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7633,7 +7639,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7647,16 +7653,16 @@
         <v>618</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>658</v>
-      </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>659</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>655</v>
@@ -7669,12 +7675,12 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>656</v>
@@ -7687,18 +7693,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7706,33 +7712,35 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="17">
+      <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="H14" s="31">
-        <v>12717</v>
+      <c r="G14" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14" s="53">
+        <v>104666</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>200</v>
@@ -7760,10 +7768,10 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7777,15 +7785,15 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="43" customFormat="1">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>204</v>
@@ -7794,10 +7802,10 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H17" s="43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="43">
         <v>8</v>
@@ -7816,18 +7824,18 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>741</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7836,15 +7844,15 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7853,15 +7861,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>744</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>745</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7870,15 +7878,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>746</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>747</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7887,15 +7895,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>748</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>749</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7904,15 +7912,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>750</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>751</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7921,15 +7929,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>752</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>753</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7938,15 +7946,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>754</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>755</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7955,15 +7963,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>756</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>757</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7972,15 +7980,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>758</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>759</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7989,15 +7997,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>760</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>761</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -8006,15 +8014,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>762</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>763</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8023,15 +8031,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>764</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>765</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8040,18 +8048,18 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -8059,15 +8067,15 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>677</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>678</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>619</v>
@@ -8075,18 +8083,18 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>814</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>816</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8094,15 +8102,15 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>785</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>786</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8127,18 +8135,18 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="43" customFormat="1">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>787</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>788</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8163,15 +8171,15 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8185,12 +8193,12 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8199,7 +8207,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8221,15 +8229,15 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -8243,12 +8251,12 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
@@ -8278,15 +8286,15 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
@@ -8295,7 +8303,7 @@
         <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -8309,12 +8317,12 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
@@ -8323,20 +8331,20 @@
         <v>618</v>
       </c>
       <c r="G41" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>668</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>669</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -8350,12 +8358,12 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
@@ -8385,15 +8393,15 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
@@ -8402,7 +8410,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -8416,12 +8424,12 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
@@ -8430,7 +8438,7 @@
         <v>618</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8438,12 +8446,12 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8457,12 +8465,12 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
@@ -8492,15 +8500,15 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
@@ -8509,7 +8517,7 @@
         <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8523,12 +8531,12 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
@@ -8537,20 +8545,20 @@
         <v>618</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8564,12 +8572,12 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
@@ -8599,15 +8607,15 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
@@ -8616,7 +8624,7 @@
         <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8630,12 +8638,12 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
@@ -8644,26 +8652,26 @@
         <v>618</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8671,90 +8679,90 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8762,12 +8770,12 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" s="49" customFormat="1">
       <c r="A60" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C60" s="50" t="s">
         <v>76</v>
@@ -8799,12 +8807,12 @@
       <c r="X60" s="50"/>
       <c r="Y60" s="50"/>
     </row>
-    <row r="61" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8832,10 +8840,10 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8852,7 +8860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8872,12 +8880,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" s="49" customFormat="1">
       <c r="A64" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C64" s="50" t="s">
         <v>76</v>
@@ -8909,12 +8917,12 @@
       <c r="X64" s="50"/>
       <c r="Y64" s="50"/>
     </row>
-    <row r="65" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8942,10 +8950,10 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8962,7 +8970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8976,18 +8984,18 @@
         <v>62</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" s="49" customFormat="1">
       <c r="A68" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>76</v>
@@ -9019,12 +9027,12 @@
       <c r="X68" s="50"/>
       <c r="Y68" s="50"/>
     </row>
-    <row r="69" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -9052,10 +9060,10 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -9072,7 +9080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9086,13 +9094,13 @@
         <v>62</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" s="49" customFormat="1">
       <c r="A72" s="50" t="b">
         <v>1</v>
       </c>
@@ -9129,7 +9137,7 @@
       <c r="X72" s="50"/>
       <c r="Y72" s="50"/>
     </row>
-    <row r="73" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9150,12 +9158,12 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9183,10 +9191,10 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9204,7 +9212,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9222,7 +9230,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9240,7 +9248,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9257,7 +9265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9286,12 +9294,12 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9324,7 +9332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9350,7 +9358,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9376,7 +9384,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9402,7 +9410,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9428,7 +9436,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9454,7 +9462,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9480,7 +9488,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9506,7 +9514,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9523,7 +9531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9552,12 +9560,12 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9586,32 +9594,32 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
+        <v>820</v>
+      </c>
+      <c r="C91" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="C91" s="50" t="s">
-        <v>822</v>
-      </c>
       <c r="D91" s="50" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9640,32 +9648,32 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="50" customFormat="1">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
+        <v>823</v>
+      </c>
+      <c r="C93" s="50" t="s">
         <v>824</v>
       </c>
-      <c r="C93" s="50" t="s">
-        <v>825</v>
-      </c>
       <c r="D93" s="50" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9694,10 +9702,10 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="50" customFormat="1">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9714,7 +9722,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9734,12 +9742,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9748,7 +9756,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9771,15 +9779,15 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9788,18 +9796,18 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9808,18 +9816,18 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9828,18 +9836,18 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="H100" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" s="30" customFormat="1">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>832</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>833</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9851,12 +9859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9865,18 +9873,18 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9885,18 +9893,18 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9905,13 +9913,13 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" s="38" customFormat="1">
       <c r="A105" s="50" t="b">
         <v>1</v>
       </c>
@@ -9919,10 +9927,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>68</v>
@@ -9948,12 +9956,12 @@
       <c r="X105" s="50"/>
       <c r="Y105" s="50"/>
     </row>
-    <row r="106" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9962,7 +9970,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9985,15 +9993,15 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -10002,7 +10010,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -10025,15 +10033,15 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10050,467 +10058,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10538,20 +10546,20 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10566,7 +10574,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10601,7 +10609,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10637,7 +10645,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10666,7 +10674,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10696,7 +10704,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10725,7 +10733,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10754,16 +10762,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10785,16 +10793,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10817,16 +10825,16 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10849,16 +10857,16 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10881,16 +10889,16 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10913,16 +10921,16 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10945,16 +10953,16 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10977,16 +10985,16 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -11009,16 +11017,16 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -11041,16 +11049,16 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -11073,16 +11081,16 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -11105,16 +11113,16 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11136,16 +11144,16 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -11168,16 +11176,16 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -11200,16 +11208,16 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11232,16 +11240,16 @@
       </c>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11264,16 +11272,16 @@
       </c>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11296,16 +11304,16 @@
       </c>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11328,16 +11336,16 @@
       </c>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11360,16 +11368,16 @@
       </c>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11392,16 +11400,16 @@
       </c>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11424,16 +11432,16 @@
       </c>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -11448,16 +11456,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -11472,16 +11480,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>
@@ -11496,16 +11504,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>64</v>
@@ -11520,25 +11528,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11563,19 +11571,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11594,7 +11602,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11615,7 +11623,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11638,7 +11646,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11661,7 +11669,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11684,7 +11692,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11707,7 +11715,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11730,7 +11738,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11753,7 +11761,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11776,7 +11784,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11799,7 +11807,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11818,7 +11826,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11839,7 +11847,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11862,7 +11870,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11885,7 +11893,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11908,7 +11916,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11931,7 +11939,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11954,7 +11962,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11977,7 +11985,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12000,7 +12008,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12023,7 +12031,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12042,7 +12050,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12065,7 +12073,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12088,7 +12096,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12111,7 +12119,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12134,7 +12142,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12157,7 +12165,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12180,7 +12188,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12203,7 +12211,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12226,7 +12234,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12249,7 +12257,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12268,7 +12276,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12289,7 +12297,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12312,7 +12320,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12335,7 +12343,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12358,7 +12366,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12381,7 +12389,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12404,7 +12412,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12427,7 +12435,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12450,7 +12458,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12473,7 +12481,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12492,7 +12500,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12513,7 +12521,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12536,7 +12544,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12559,7 +12567,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12582,7 +12590,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12605,7 +12613,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12628,7 +12636,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12651,7 +12659,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12674,7 +12682,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12697,7 +12705,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12716,7 +12724,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12737,7 +12745,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12760,7 +12768,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12783,7 +12791,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12806,7 +12814,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12829,7 +12837,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12852,7 +12860,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12875,7 +12883,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12898,7 +12906,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12921,7 +12929,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12940,7 +12948,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12961,7 +12969,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12986,7 +12994,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13009,7 +13017,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13032,7 +13040,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13055,7 +13063,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13078,7 +13086,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13101,7 +13109,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13124,7 +13132,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13147,7 +13155,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13170,7 +13178,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13189,7 +13197,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13210,7 +13218,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13233,7 +13241,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13258,7 +13266,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13281,7 +13289,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13304,7 +13312,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13327,7 +13335,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13350,7 +13358,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13373,7 +13381,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13396,7 +13404,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13419,7 +13427,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13442,7 +13450,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13465,7 +13473,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13488,7 +13496,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13507,7 +13515,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13530,7 +13538,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13553,7 +13561,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13576,7 +13584,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13599,7 +13607,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13630,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13645,7 +13653,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13668,7 +13676,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13691,7 +13699,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13714,7 +13722,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13745,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13756,7 +13764,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13781,7 +13789,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13800,7 +13808,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13821,7 +13829,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13846,7 +13854,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13865,7 +13873,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13888,7 +13896,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13913,7 +13921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13936,7 +13944,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13957,7 +13965,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13976,7 +13984,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14001,7 +14009,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14024,7 +14032,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14047,7 +14055,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14070,7 +14078,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14093,7 +14101,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14116,7 +14124,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14139,7 +14147,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14158,7 +14166,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14181,7 +14189,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14204,7 +14212,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14227,7 +14235,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14246,7 +14254,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14269,7 +14277,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14292,7 +14300,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14315,7 +14323,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14338,7 +14346,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14361,7 +14369,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14384,7 +14392,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14403,7 +14411,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14428,7 +14436,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14451,7 +14459,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14474,7 +14482,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14497,7 +14505,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14520,7 +14528,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14543,7 +14551,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14566,7 +14574,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14589,7 +14597,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14612,7 +14620,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14631,7 +14639,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14656,7 +14664,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14677,7 +14685,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14700,7 +14708,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14723,7 +14731,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14746,7 +14754,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14769,7 +14777,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14792,7 +14800,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14815,7 +14823,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14838,7 +14846,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14861,7 +14869,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14884,7 +14892,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14907,7 +14915,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14930,7 +14938,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14953,7 +14961,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14972,7 +14980,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14995,7 +15003,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15014,7 +15022,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15037,7 +15045,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15060,7 +15068,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15079,7 +15087,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15104,7 +15112,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15127,7 +15135,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15150,7 +15158,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15173,7 +15181,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15196,7 +15204,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15219,7 +15227,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15242,7 +15250,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15265,7 +15273,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15288,7 +15296,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15311,7 +15319,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15330,7 +15338,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15355,7 +15363,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15378,7 +15386,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15401,7 +15409,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15424,7 +15432,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15447,7 +15455,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15470,7 +15478,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15493,7 +15501,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15516,7 +15524,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15539,7 +15547,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15562,7 +15570,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15581,7 +15589,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15604,7 +15612,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15627,7 +15635,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15650,7 +15658,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15673,7 +15681,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15692,7 +15700,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15715,7 +15723,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15746,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15761,7 +15769,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15792,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15803,7 +15811,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15824,7 +15832,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15847,7 +15855,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15866,7 +15874,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15889,7 +15897,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15914,7 +15922,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15935,7 +15943,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15960,7 +15968,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15985,7 +15993,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16004,7 +16012,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16029,7 +16037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16052,7 +16060,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16075,7 +16083,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16098,7 +16106,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16121,7 +16129,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16144,7 +16152,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16167,7 +16175,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16190,7 +16198,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16213,7 +16221,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16232,7 +16240,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16257,7 +16265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16280,7 +16288,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16303,7 +16311,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16326,7 +16334,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16349,7 +16357,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16372,7 +16380,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16395,7 +16403,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16418,7 +16426,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16441,7 +16449,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16460,7 +16468,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16481,7 +16489,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16504,7 +16512,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16527,7 +16535,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16550,7 +16558,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16573,7 +16581,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16596,7 +16604,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16619,7 +16627,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16650,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16665,7 +16673,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16688,7 +16696,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16711,7 +16719,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16734,7 +16742,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16757,7 +16765,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16780,7 +16788,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16803,7 +16811,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16826,7 +16834,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16845,7 +16853,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16866,7 +16874,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16889,7 +16897,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16912,7 +16920,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16935,7 +16943,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16958,7 +16966,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16981,7 +16989,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17004,7 +17012,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17027,7 +17035,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17050,7 +17058,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17073,7 +17081,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17096,7 +17104,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17119,7 +17127,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17142,7 +17150,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17165,7 +17173,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17188,7 +17196,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17211,7 +17219,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17230,7 +17238,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17255,7 +17263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17278,7 +17286,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17301,7 +17309,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17324,7 +17332,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17347,7 +17355,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17366,7 +17374,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17391,7 +17399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17414,7 +17422,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17433,7 +17441,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17452,7 +17460,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17471,7 +17479,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17492,7 +17500,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17515,7 +17523,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17538,7 +17546,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17561,7 +17569,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17584,7 +17592,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17607,7 +17615,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17630,7 +17638,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17653,7 +17661,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17676,7 +17684,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17699,7 +17707,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17722,7 +17730,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17741,7 +17749,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17764,7 +17772,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17783,7 +17791,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17808,7 +17816,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17831,7 +17839,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17854,7 +17862,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17877,7 +17885,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17900,7 +17908,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17923,7 +17931,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17946,7 +17954,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17969,7 +17977,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17992,7 +18000,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18015,7 +18023,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18038,7 +18046,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18057,7 +18065,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18080,7 +18088,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18099,7 +18107,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18120,7 +18128,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18139,7 +18147,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18160,7 +18168,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18179,7 +18187,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18200,7 +18208,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18219,7 +18227,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18242,7 +18250,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18261,7 +18269,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18286,7 +18294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18309,7 +18317,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18332,7 +18340,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18355,7 +18363,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18378,7 +18386,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18401,7 +18409,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18424,7 +18432,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18447,7 +18455,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18470,7 +18478,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18489,7 +18497,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18512,7 +18520,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18535,7 +18543,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18558,7 +18566,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18581,7 +18589,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18600,7 +18608,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18623,7 +18631,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18646,7 +18654,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18671,7 +18679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18690,7 +18698,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18715,7 +18723,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18738,7 +18746,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18757,7 +18765,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18778,7 +18786,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18799,7 +18807,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18822,7 +18830,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18841,7 +18849,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18860,7 +18868,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18885,7 +18893,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18910,7 +18918,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18924,7 +18932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18947,7 +18955,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18967,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18987,7 +18995,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -19007,7 +19015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -19024,7 +19032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -19047,7 +19055,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -19070,7 +19078,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -19084,7 +19092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -19107,7 +19115,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -19130,7 +19138,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -19150,7 +19158,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19170,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19187,7 +19195,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19213,7 +19221,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19242,7 +19250,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19281,7 +19289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19295,7 +19303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19315,7 +19323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19329,7 +19337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19349,7 +19357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19369,7 +19377,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19389,7 +19397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19409,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19429,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19449,7 +19457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19469,7 +19477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19489,7 +19497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19509,7 +19517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19523,7 +19531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19543,7 +19551,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19563,7 +19571,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19579,7 +19587,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19605,7 +19613,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19646,7 +19654,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19660,7 +19668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19680,7 +19688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19694,7 +19702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19733,17 +19741,17 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19754,7 +19762,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19768,7 +19776,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19782,7 +19790,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19796,7 +19804,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19810,7 +19818,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19824,7 +19832,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19838,7 +19846,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19852,7 +19860,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19866,7 +19874,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19880,7 +19888,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19894,7 +19902,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19905,8 +19913,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19932,7 +19940,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19973,7 +19981,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -20014,7 +20022,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -20046,7 +20054,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -20078,7 +20086,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -20107,7 +20115,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -20139,7 +20147,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20159,9 +20167,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
@@ -20182,7 +20190,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20193,16 +20201,16 @@
         <v>574</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P25" s="30">
         <v>1</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20210,7 +20218,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2140,12 +2140,6 @@
     <t>End date</t>
   </si>
   <si>
-    <t>2013-12-21</t>
-  </si>
-  <si>
-    <t>2013-01-21</t>
-  </si>
-  <si>
     <t>calibration_data</t>
   </si>
   <si>
@@ -2591,6 +2585,12 @@
   </si>
   <si>
     <t>DOE Ref 1980-2004</t>
+  </si>
+  <si>
+    <t>2013-01-10</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4704,10 +4704,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1838">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6852,17 +6852,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6886,12 +6886,12 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
@@ -6925,7 +6925,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6947,18 +6947,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7034,10 +7034,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7045,10 +7045,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7062,7 +7062,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7233,13 +7233,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="A32" s="31" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B32" s="30">
         <v>1</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7258,12 +7258,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7276,10 +7276,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7325,13 +7325,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7364,34 +7364,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18">
@@ -7420,16 +7420,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7524,13 +7524,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7543,16 +7543,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7560,16 +7560,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7605,7 +7605,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7630,7 +7630,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7698,13 +7698,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7712,7 +7712,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -7728,9 +7728,9 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="H14" s="53">
+        <v>763</v>
+      </c>
+      <c r="H14" s="52">
         <v>104666</v>
       </c>
       <c r="I14" s="31"/>
@@ -7768,7 +7768,7 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7802,7 +7802,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H17" s="43">
         <v>12</v>
@@ -7824,7 +7824,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -7832,10 +7832,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7849,10 +7849,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7866,10 +7866,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7883,10 +7883,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7900,10 +7900,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7917,10 +7917,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7934,10 +7934,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7951,10 +7951,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7968,10 +7968,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7985,10 +7985,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -8002,10 +8002,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -8019,10 +8019,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8036,10 +8036,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8088,13 +8088,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8107,10 +8107,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8135,7 +8135,7 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1">
@@ -8143,10 +8143,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8171,7 +8171,7 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8198,7 +8198,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8207,7 +8207,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8229,7 +8229,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -8693,7 +8693,7 @@
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8711,7 +8711,7 @@
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8729,7 +8729,7 @@
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>700</v>
+        <v>848</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8747,7 +8747,7 @@
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>699</v>
+        <v>849</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8756,13 +8756,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8775,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C60" s="50" t="s">
         <v>76</v>
@@ -8812,7 +8812,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8840,7 +8840,7 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:25" s="30" customFormat="1">
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C64" s="50" t="s">
         <v>76</v>
@@ -8922,7 +8922,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8950,7 +8950,7 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:25" s="30" customFormat="1">
@@ -8995,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>76</v>
@@ -9032,7 +9032,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -9060,7 +9060,7 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="70" spans="1:25" s="30" customFormat="1">
@@ -9163,7 +9163,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9191,7 +9191,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:25" s="30" customFormat="1">
@@ -9299,7 +9299,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9565,7 +9565,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9594,7 +9594,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
@@ -9602,13 +9602,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
@@ -9619,7 +9619,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9648,7 +9648,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="50" customFormat="1">
@@ -9656,13 +9656,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
@@ -9673,7 +9673,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9702,7 +9702,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="50" customFormat="1">
@@ -9747,7 +9747,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9756,7 +9756,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="98" spans="1:25" s="30" customFormat="1">
@@ -9787,7 +9787,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9796,7 +9796,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9816,7 +9816,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9827,7 +9827,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9836,7 +9836,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9864,7 +9864,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9873,7 +9873,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9884,7 +9884,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9893,7 +9893,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9913,7 +9913,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9927,10 +9927,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>68</v>
@@ -9961,7 +9961,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9970,7 +9970,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="107" spans="1:25" s="43" customFormat="1">
@@ -10001,7 +10001,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -10010,7 +10010,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -10033,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -10041,7 +10041,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10546,17 +10546,17 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
@@ -10574,7 +10574,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10764,14 +10764,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10795,14 +10795,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10827,14 +10827,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10859,14 +10859,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10891,14 +10891,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10923,14 +10923,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10955,14 +10955,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10987,14 +10987,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -11019,14 +11019,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -11051,14 +11051,14 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -11083,14 +11083,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -11115,14 +11115,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11146,14 +11146,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -11178,14 +11178,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -11210,14 +11210,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11242,14 +11242,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11274,14 +11274,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11306,14 +11306,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11338,14 +11338,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11370,14 +11370,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11402,14 +11402,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11434,14 +11434,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -11458,14 +11458,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -11482,14 +11482,14 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>
@@ -11506,14 +11506,14 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>64</v>
@@ -11571,19 +11571,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11602,7 +11602,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11623,7 +11623,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11847,7 +11847,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12276,7 +12276,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12297,7 +12297,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12389,7 +12389,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12500,7 +12500,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12521,7 +12521,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12590,7 +12590,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12724,7 +12724,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12745,7 +12745,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12814,7 +12814,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12906,7 +12906,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12969,7 +12969,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12994,7 +12994,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13040,7 +13040,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13132,7 +13132,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13218,7 +13218,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13266,7 +13266,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13312,7 +13312,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13427,7 +13427,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13515,7 +13515,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13764,7 +13764,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13789,7 +13789,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13808,7 +13808,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13829,7 +13829,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13854,7 +13854,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13873,7 +13873,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13921,7 +13921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13944,7 +13944,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13965,7 +13965,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13984,7 +13984,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14009,7 +14009,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14166,7 +14166,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14212,7 +14212,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14254,7 +14254,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14346,7 +14346,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14411,7 +14411,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14436,7 +14436,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14574,7 +14574,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14639,7 +14639,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14664,7 +14664,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14685,7 +14685,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14754,7 +14754,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14800,7 +14800,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14846,7 +14846,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14938,7 +14938,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14980,7 +14980,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15022,7 +15022,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15068,7 +15068,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15087,7 +15087,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15112,7 +15112,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15250,7 +15250,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15338,7 +15338,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15363,7 +15363,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15409,7 +15409,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15478,7 +15478,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15501,7 +15501,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15570,7 +15570,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15589,7 +15589,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15658,7 +15658,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15700,7 +15700,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15792,7 +15792,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15811,7 +15811,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15832,7 +15832,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15897,7 +15897,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15922,7 +15922,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15943,7 +15943,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15968,7 +15968,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15993,7 +15993,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16012,7 +16012,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16037,7 +16037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16060,7 +16060,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16240,7 +16240,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16265,7 +16265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16334,7 +16334,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16357,7 +16357,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16380,7 +16380,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16449,7 +16449,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16468,7 +16468,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16489,7 +16489,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16558,7 +16558,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16627,7 +16627,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16788,7 +16788,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16834,7 +16834,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16853,7 +16853,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16874,7 +16874,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16920,7 +16920,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16989,7 +16989,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17104,7 +17104,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17219,7 +17219,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17238,7 +17238,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17332,7 +17332,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17374,7 +17374,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17399,7 +17399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17441,7 +17441,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17460,7 +17460,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17479,7 +17479,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17500,7 +17500,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17592,7 +17592,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17615,7 +17615,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17661,7 +17661,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17684,7 +17684,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17707,7 +17707,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17730,7 +17730,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17749,7 +17749,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17791,7 +17791,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17816,7 +17816,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17839,7 +17839,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17885,7 +17885,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17908,7 +17908,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17931,7 +17931,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -18000,7 +18000,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18023,7 +18023,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18065,7 +18065,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18107,7 +18107,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18128,7 +18128,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18147,7 +18147,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18168,7 +18168,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18187,7 +18187,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18208,7 +18208,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18227,7 +18227,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18250,7 +18250,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18269,7 +18269,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18294,7 +18294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18317,7 +18317,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18340,7 +18340,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18386,7 +18386,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18478,7 +18478,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18497,7 +18497,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18520,7 +18520,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18543,7 +18543,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18566,7 +18566,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18589,7 +18589,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18608,7 +18608,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18654,7 +18654,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18679,7 +18679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18723,7 +18723,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18765,7 +18765,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18786,7 +18786,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18807,7 +18807,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18830,7 +18830,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18849,7 +18849,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18868,7 +18868,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18893,7 +18893,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19250,7 +19250,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19613,7 +19613,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19741,14 +19741,14 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -20201,13 +20201,13 @@
         <v>574</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="P25" s="30">
         <v>1</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:17">

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="856">
   <si>
     <t>type</t>
   </si>
@@ -2591,6 +2591,24 @@
   </si>
   <si>
     <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 11 Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 10 Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_10_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 11 Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_11_consumption_modeled</t>
   </si>
 </sst>
 </file>
@@ -7364,7 +7382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
     </sheetView>
@@ -10541,9 +10559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -10787,7 +10805,7 @@
       </c>
       <c r="I8" s="30">
         <f>SUM(I9:I18)</f>
-        <v>39359</v>
+        <v>1398000</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -10817,12 +10835,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="30">
-        <v>4153</v>
+        <v>148000</v>
       </c>
       <c r="J9" s="30"/>
-      <c r="K9" s="30">
-        <v>1</v>
-      </c>
+      <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12">
@@ -10849,12 +10865,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="30">
-        <v>3732</v>
+        <v>112000</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="30">
-        <v>1</v>
-      </c>
+      <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
@@ -10881,12 +10895,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="30">
-        <v>3884</v>
+        <v>116000</v>
       </c>
       <c r="J11" s="30"/>
-      <c r="K11" s="30">
-        <v>1</v>
-      </c>
+      <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12">
@@ -10913,12 +10925,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="30">
-        <v>3708</v>
+        <v>112000</v>
       </c>
       <c r="J12" s="30"/>
-      <c r="K12" s="30">
-        <v>1</v>
-      </c>
+      <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12">
@@ -10945,12 +10955,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="30">
-        <v>4009</v>
+        <v>148000</v>
       </c>
       <c r="J13" s="30"/>
-      <c r="K13" s="30">
-        <v>1</v>
-      </c>
+      <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12">
@@ -10977,12 +10985,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="30">
-        <v>5042</v>
+        <v>166000</v>
       </c>
       <c r="J14" s="30"/>
-      <c r="K14" s="30">
-        <v>1</v>
-      </c>
+      <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12">
@@ -11009,12 +11015,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="30">
-        <v>4616</v>
+        <v>178000</v>
       </c>
       <c r="J15" s="30"/>
-      <c r="K15" s="30">
-        <v>1</v>
-      </c>
+      <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12">
@@ -11041,12 +11045,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="30">
-        <v>3115</v>
+        <v>168000</v>
       </c>
       <c r="J16" s="30"/>
-      <c r="K16" s="30">
-        <v>1</v>
-      </c>
+      <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12">
@@ -11073,12 +11075,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="30">
-        <v>3357</v>
+        <v>130000</v>
       </c>
       <c r="J17" s="30"/>
-      <c r="K17" s="30">
-        <v>1</v>
-      </c>
+      <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12">
@@ -11105,24 +11105,22 @@
         <v>1</v>
       </c>
       <c r="I18" s="30">
-        <v>3743</v>
+        <v>120000</v>
       </c>
       <c r="J18" s="30"/>
-      <c r="K18" s="30">
-        <v>1</v>
-      </c>
+      <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>719</v>
+        <v>850</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>802</v>
+        <v>851</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11134,11 +11132,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="30">
-        <f>SUM(I20:I28)</f>
-        <v>2239</v>
+        <v>130000</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -11146,11 +11143,11 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>720</v>
@@ -11165,24 +11162,23 @@
         <v>1</v>
       </c>
       <c r="H20" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="30">
-        <v>1038</v>
+        <f>SUM(I21:I31)</f>
+        <v>18676</v>
       </c>
       <c r="J20" s="30"/>
-      <c r="K20" s="30">
-        <v>2</v>
-      </c>
+      <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>720</v>
@@ -11200,21 +11196,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="30">
-        <v>724</v>
+        <v>4621</v>
       </c>
       <c r="J21" s="30"/>
-      <c r="K21" s="30">
-        <v>2</v>
-      </c>
+      <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>720</v>
@@ -11232,21 +11226,19 @@
         <v>1</v>
       </c>
       <c r="I22" s="30">
-        <v>297</v>
+        <v>3152</v>
       </c>
       <c r="J22" s="30"/>
-      <c r="K22" s="30">
-        <v>2</v>
-      </c>
+      <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>720</v>
@@ -11264,21 +11256,19 @@
         <v>1</v>
       </c>
       <c r="I23" s="30">
-        <v>71</v>
+        <v>2180</v>
       </c>
       <c r="J23" s="30"/>
-      <c r="K23" s="30">
-        <v>2</v>
-      </c>
+      <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>720</v>
@@ -11296,21 +11286,19 @@
         <v>1</v>
       </c>
       <c r="I24" s="30">
-        <v>14</v>
+        <v>1271</v>
       </c>
       <c r="J24" s="30"/>
-      <c r="K24" s="30">
-        <v>2</v>
-      </c>
+      <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>720</v>
@@ -11328,21 +11316,19 @@
         <v>1</v>
       </c>
       <c r="I25" s="30">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="J25" s="30"/>
-      <c r="K25" s="30">
-        <v>2</v>
-      </c>
+      <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>720</v>
@@ -11360,21 +11346,19 @@
         <v>1</v>
       </c>
       <c r="I26" s="30">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="J26" s="30"/>
-      <c r="K26" s="30">
-        <v>2</v>
-      </c>
+      <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>720</v>
@@ -11392,21 +11376,19 @@
         <v>1</v>
       </c>
       <c r="I27" s="30">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="J27" s="30"/>
-      <c r="K27" s="30">
-        <v>2</v>
-      </c>
+      <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>720</v>
@@ -11424,26 +11406,24 @@
         <v>1</v>
       </c>
       <c r="I28" s="30">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="J28" s="30"/>
-      <c r="K28" s="30">
-        <v>2</v>
-      </c>
+      <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>838</v>
+        <v>728</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E29" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F29" s="30" t="b">
@@ -11453,21 +11433,27 @@
         <v>1</v>
       </c>
       <c r="H29" s="30" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" s="30">
+        <v>794</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E30" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="30" t="b">
@@ -11477,21 +11463,27 @@
         <v>1</v>
       </c>
       <c r="H30" s="30" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" s="30">
+        <v>1413</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E31" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="30" t="b">
@@ -11501,16 +11493,22 @@
         <v>1</v>
       </c>
       <c r="H31" s="30" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" s="30">
+        <v>3512</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>825</v>
@@ -11528,25 +11526,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
+        <v>839</v>
+      </c>
       <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="30"/>
+      <c r="C33" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="30"/>
+      <c r="C34" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -7382,9 +7382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -7783,7 +7783,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N15" s="43">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q15" s="51" t="s">
         <v>773</v>
@@ -7839,7 +7839,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="43">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="51" t="s">
         <v>773</v>
@@ -8150,7 +8150,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="N34" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q34" s="43" t="s">
         <v>773</v>
@@ -8186,7 +8186,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="N35" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q35" s="43" t="s">
         <v>773</v>
@@ -8549,7 +8549,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:17">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8571,7 +8571,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:25" s="38" customFormat="1">
+    <row r="50" spans="1:17" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8656,7 +8656,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:17">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8678,7 +8678,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:25" s="38" customFormat="1">
+    <row r="54" spans="1:17" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:17">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:25" s="38" customFormat="1">
+    <row r="59" spans="1:17" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8788,44 +8788,24 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:25" s="49" customFormat="1">
-      <c r="A60" s="50" t="b">
+    <row r="60" spans="1:17" s="49" customFormat="1">
+      <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>771</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-    </row>
-    <row r="61" spans="1:25" s="43" customFormat="1">
+    </row>
+    <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8855,13 +8835,13 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N61" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q61" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="30" customFormat="1">
+    <row r="63" spans="1:17" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8898,44 +8878,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="49" customFormat="1">
-      <c r="A64" s="50" t="b">
+    <row r="64" spans="1:17" s="49" customFormat="1">
+      <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="50"/>
-    </row>
-    <row r="65" spans="1:25" s="43" customFormat="1">
+    </row>
+    <row r="65" spans="1:17" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8965,13 +8925,13 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N65" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q65" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8988,7 +8948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="30" customFormat="1">
+    <row r="67" spans="1:17" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -9008,44 +8968,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:25" s="49" customFormat="1">
-      <c r="A68" s="50" t="b">
+    <row r="68" spans="1:17" s="49" customFormat="1">
+      <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="49" t="s">
         <v>776</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="50"/>
-      <c r="X68" s="50"/>
-      <c r="Y68" s="50"/>
-    </row>
-    <row r="69" spans="1:25" s="43" customFormat="1">
+    </row>
+    <row r="69" spans="1:17" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -9075,13 +9015,13 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N69" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q69" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="70" spans="1:25" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -9098,7 +9038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="30" customFormat="1">
+    <row r="71" spans="1:17" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9118,44 +9058,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="49" customFormat="1">
-      <c r="A72" s="50" t="b">
+    <row r="72" spans="1:17" s="49" customFormat="1">
+      <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E72" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="50"/>
-      <c r="V72" s="50"/>
-      <c r="W72" s="50"/>
-      <c r="X72" s="50"/>
-      <c r="Y72" s="50"/>
-    </row>
-    <row r="73" spans="1:25" s="30" customFormat="1">
+    </row>
+    <row r="73" spans="1:17" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9176,7 +9096,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:25" s="43" customFormat="1">
+    <row r="74" spans="1:17" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9212,7 +9132,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="75" spans="1:25" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9230,7 +9150,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:25" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9248,7 +9168,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:25" s="30" customFormat="1">
+    <row r="77" spans="1:17" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9266,7 +9186,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:25" s="50" customFormat="1">
+    <row r="78" spans="1:17" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9283,7 +9203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:17">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9312,7 +9232,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:25" s="43" customFormat="1">
+    <row r="80" spans="1:17" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9760,7 +9680,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="43" customFormat="1">
+    <row r="97" spans="1:17" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9800,7 +9720,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="30" customFormat="1">
+    <row r="98" spans="1:17" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9820,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="30" customFormat="1">
+    <row r="99" spans="1:17" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9840,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="30" customFormat="1">
+    <row r="100" spans="1:17" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9860,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" s="30" customFormat="1">
+    <row r="101" spans="1:17" s="30" customFormat="1">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9877,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="30" customFormat="1">
+    <row r="102" spans="1:17" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9897,7 +9817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:25" s="30" customFormat="1">
+    <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9917,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" s="30" customFormat="1">
+    <row r="104" spans="1:17" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9937,44 +9857,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="38" customFormat="1">
-      <c r="A105" s="50" t="b">
+    <row r="105" spans="1:17" s="38" customFormat="1">
+      <c r="A105" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="50" t="s">
+      <c r="C105" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="E105" s="50" t="s">
+      <c r="E105" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="50"/>
-      <c r="O105" s="50"/>
-      <c r="P105" s="50"/>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="50"/>
-      <c r="S105" s="50"/>
-      <c r="T105" s="50"/>
-      <c r="U105" s="50"/>
-      <c r="V105" s="50"/>
-      <c r="W105" s="50"/>
-      <c r="X105" s="50"/>
-      <c r="Y105" s="50"/>
-    </row>
-    <row r="106" spans="1:25" s="43" customFormat="1">
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+    </row>
+    <row r="106" spans="1:17" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
@@ -10014,7 +9916,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="107" spans="1:25" s="43" customFormat="1">
+    <row r="107" spans="1:17" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
@@ -10054,7 +9956,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:17">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
@@ -10076,19 +9978,19 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:17">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:17">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:17">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:17">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
@@ -10559,7 +10461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$154</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="864">
   <si>
     <t>type</t>
   </si>
@@ -2609,6 +2609,30 @@
   </si>
   <si>
     <t>calibration_reports.gas_bill_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Add Service Water Heating</t>
+  </si>
+  <si>
+    <t>AddServiceWaterHeating</t>
+  </si>
+  <si>
+    <t>Water Heater Fuel Type</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Gallons Hot Water per Occupant per Day</t>
+  </si>
+  <si>
+    <t>hot_water_per_occ_per_day_gal</t>
+  </si>
+  <si>
+    <t>gal</t>
   </si>
 </sst>
 </file>
@@ -6870,17 +6894,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6904,14 +6928,14 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6943,7 +6967,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6954,7 +6978,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6965,7 +6989,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6976,7 +7000,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6995,7 +7019,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7080,7 +7104,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7113,7 +7137,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7138,7 +7162,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7276,7 +7300,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7297,7 +7321,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7326,7 +7350,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7380,39 +7404,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD108"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7447,7 +7471,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7463,7 +7487,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7730,7 +7754,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17.399999999999999">
+    <row r="14" spans="1:25" ht="18">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8774,161 +8798,165 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>704</v>
+        <v>856</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1">
-      <c r="A60" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>68</v>
-      </c>
+    <row r="60" spans="1:17">
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>772</v>
+        <v>861</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>77</v>
+        <v>862</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>64</v>
+        <v>619</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>863</v>
       </c>
       <c r="H61" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J61" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K61" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L61" s="43">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="J61" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="45">
+        <v>3</v>
+      </c>
+      <c r="L61" s="45">
+        <v>1</v>
       </c>
       <c r="M61" s="43">
-        <f>(K61+J61)/6</f>
-        <v>0.14166666666666669</v>
+        <f>(K61-J61)/6</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N61" s="43">
-        <v>0.1</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="P61" s="47"/>
       <c r="Q61" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="62" spans="1:17" s="38" customFormat="1">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:17" s="49" customFormat="1">
+      <c r="A63" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="43" customFormat="1">
+      <c r="B64" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>772</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J64" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K64" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M64" s="43">
+        <f>(K64+J64)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N64" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q64" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="30" customFormat="1">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F65" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H65" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="49" customFormat="1">
-      <c r="A64" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>774</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
-      <c r="B65" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>775</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J65" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K65" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M65" s="43">
-        <f>(K65+J65)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N65" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q65" s="43" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8936,89 +8964,89 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="49" customFormat="1">
+      <c r="A67" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="43" customFormat="1">
+      <c r="B68" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J68" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K68" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M68" s="43">
+        <f>(K68+J68)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1">
+      <c r="B69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H69" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="49" customFormat="1">
-      <c r="A68" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>776</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
-      <c r="B69" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>777</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J69" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K69" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M69" s="43">
-        <f>(K69+J69)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N69" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q69" s="43" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -9026,53 +9054,72 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F70" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="49" customFormat="1">
+      <c r="A71" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="43" customFormat="1">
+      <c r="B72" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="49" customFormat="1">
-      <c r="A72" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>68</v>
+      <c r="H72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J72" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K72" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M72" s="43">
+        <f>(K72+J72)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N72" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q72" s="43" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
@@ -9080,221 +9127,182 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
-      <c r="B74" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>778</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="43">
-        <v>0</v>
-      </c>
-      <c r="J74" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K74" s="45">
-        <v>100</v>
-      </c>
-      <c r="L74" s="45">
-        <v>0</v>
-      </c>
-      <c r="M74" s="45">
-        <f>(K74-J74)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N74" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q74" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
+      <c r="H74" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="49" customFormat="1">
+      <c r="A75" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="43" customFormat="1">
+      <c r="B77" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="43">
+        <v>0</v>
+      </c>
+      <c r="J77" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K77" s="45">
+        <v>100</v>
+      </c>
+      <c r="L77" s="45">
+        <v>0</v>
+      </c>
+      <c r="M77" s="45">
+        <f>(K77-J77)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N77" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q77" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="30" customFormat="1">
+      <c r="B78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="30">
+        <v>0</v>
+      </c>
+      <c r="O78" s="31"/>
+    </row>
+    <row r="79" spans="1:17" s="30" customFormat="1">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="30">
-        <v>0</v>
-      </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="O79" s="31"/>
+    </row>
+    <row r="80" spans="1:17" s="30" customFormat="1">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F80" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H80" s="30">
         <v>1</v>
       </c>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
-      <c r="A78" s="50" t="b">
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="1:17" s="50" customFormat="1">
+      <c r="A81" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B81" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E81" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="P79" s="40"/>
-    </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
-      <c r="B80" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>779</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="43">
-        <v>0</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="45">
-        <v>-60</v>
-      </c>
-      <c r="K80" s="45">
-        <v>60</v>
-      </c>
-      <c r="L80" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M80" s="45">
-        <f>(K80-J80)/6</f>
-        <v>20</v>
-      </c>
-      <c r="N80" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="30"/>
@@ -9303,17 +9311,20 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30">
-        <v>0</v>
+      <c r="H82" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9322,31 +9333,43 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="40"/>
+    <row r="83" spans="1:17" s="43" customFormat="1">
+      <c r="B83" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="43">
+        <v>0</v>
+      </c>
+      <c r="I83" s="46"/>
+      <c r="J83" s="45">
+        <v>-60</v>
+      </c>
+      <c r="K83" s="45">
+        <v>60</v>
+      </c>
+      <c r="L83" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="45">
+        <f>(K83-J83)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N83" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="30"/>
@@ -9354,18 +9377,18 @@
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
-      <c r="D84" s="30" t="s">
-        <v>53</v>
+      <c r="D84" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30" t="b">
-        <v>1</v>
+      <c r="H84" s="30">
+        <v>0</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9381,17 +9404,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9407,13 +9430,13 @@
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
@@ -9433,16 +9456,16 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G87" s="30"/>
-      <c r="H87" s="30">
+      <c r="H87" s="30" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
@@ -9452,22 +9475,31 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
-      <c r="A88" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>68</v>
-      </c>
+    <row r="88" spans="1:17">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9476,20 +9508,17 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30" t="s">
-        <v>373</v>
+        <v>57</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G89" s="30"/>
-      <c r="H89" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>83</v>
+      <c r="H89" s="30">
+        <v>0</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -9498,186 +9527,184 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
-      <c r="B90" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>817</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F90" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H90" s="43">
-        <v>0</v>
-      </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="45">
-        <v>-30</v>
-      </c>
-      <c r="K90" s="45">
-        <v>30</v>
-      </c>
-      <c r="L90" s="45">
-        <v>0</v>
-      </c>
-      <c r="M90" s="45">
-        <f>(K90-J90)/6</f>
-        <v>10</v>
-      </c>
-      <c r="N90" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q90" s="43" t="s">
-        <v>773</v>
-      </c>
+    <row r="90" spans="1:17">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>818</v>
+        <v>327</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>819</v>
+        <v>328</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>819</v>
+        <v>328</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
-      <c r="B92" s="43" t="s">
+    <row r="92" spans="1:17">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="P92" s="40"/>
+    </row>
+    <row r="93" spans="1:17" s="43" customFormat="1">
+      <c r="B93" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D93" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="43">
+        <v>0</v>
+      </c>
+      <c r="I93" s="46"/>
+      <c r="J93" s="45">
+        <v>-30</v>
+      </c>
+      <c r="K93" s="45">
+        <v>30</v>
+      </c>
+      <c r="L93" s="45">
+        <v>0</v>
+      </c>
+      <c r="M93" s="45">
+        <f>(K93-J93)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N93" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q93" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="50" customFormat="1">
+      <c r="A94" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>818</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="43" customFormat="1">
+      <c r="B95" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="43" t="s">
         <v>820</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E95" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F95" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H92" s="43">
-        <v>0</v>
-      </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45">
+      <c r="H95" s="43">
+        <v>0</v>
+      </c>
+      <c r="I95" s="46"/>
+      <c r="J95" s="45">
         <v>-50</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K95" s="45">
         <v>100</v>
       </c>
-      <c r="L92" s="45">
-        <v>0</v>
-      </c>
-      <c r="M92" s="45">
-        <f>(K92-J92)/6</f>
+      <c r="L95" s="45">
+        <v>0</v>
+      </c>
+      <c r="M95" s="45">
+        <f>(K95-J95)/6</f>
         <v>25</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N95" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q95" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
-      <c r="A93" s="50" t="b">
+    <row r="96" spans="1:17" s="50" customFormat="1">
+      <c r="A96" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B96" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C96" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D96" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E96" s="50" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
-      <c r="B94" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>823</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="43">
-        <v>0</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="45">
-        <v>-50</v>
-      </c>
-      <c r="K94" s="45">
-        <v>100</v>
-      </c>
-      <c r="L94" s="45">
-        <v>0</v>
-      </c>
-      <c r="M94" s="45">
-        <f>(K94-J94)/6</f>
-        <v>25</v>
-      </c>
-      <c r="N94" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q94" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
-      <c r="A95" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="43" customFormat="1">
@@ -9685,33 +9712,30 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="43" t="s">
-        <v>825</v>
-      </c>
       <c r="H97" s="43">
         <v>0</v>
       </c>
       <c r="I97" s="46"/>
       <c r="J97" s="45">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="K97" s="45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L97" s="45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="45">
         <f>(K97-J97)/6</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N97" s="45">
         <v>2.5</v>
@@ -9720,24 +9744,21 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="H98" s="30">
-        <v>0</v>
+    <row r="98" spans="1:17" s="50" customFormat="1">
+      <c r="A98" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="30" customFormat="1">
@@ -9745,39 +9766,59 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>827</v>
+        <v>373</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F99" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="43" customFormat="1">
+      <c r="B100" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>824</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G100" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="H99" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
+      <c r="H100" s="43">
+        <v>0</v>
+      </c>
+      <c r="I100" s="46"/>
+      <c r="J100" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K100" s="45">
+        <v>80</v>
+      </c>
+      <c r="L100" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="45">
+        <f>(K100-J100)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N100" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="30" customFormat="1">
@@ -9785,15 +9826,18 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H101" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9802,19 +9846,19 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H102" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1">
@@ -9822,16 +9866,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9842,153 +9886,198 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="30" customFormat="1">
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="H105" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="30" customFormat="1">
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H106" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="30" customFormat="1">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F107" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G107" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H104" s="30">
+      <c r="H107" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1">
-      <c r="A105" s="38" t="b">
+    <row r="108" spans="1:17" s="38" customFormat="1">
+      <c r="A108" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B108" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C108" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D108" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E108" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-    </row>
-    <row r="106" spans="1:17" s="43" customFormat="1">
-      <c r="B106" s="43" t="s">
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+    </row>
+    <row r="109" spans="1:17" s="43" customFormat="1">
+      <c r="B109" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D109" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E109" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F109" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G106" s="43" t="s">
+      <c r="G109" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="H106" s="43">
+      <c r="H109" s="43">
         <v>1</v>
       </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="45">
+      <c r="I109" s="46"/>
+      <c r="J109" s="45">
         <v>-2</v>
       </c>
-      <c r="K106" s="45">
-        <v>2</v>
-      </c>
-      <c r="L106" s="45">
-        <v>0</v>
-      </c>
-      <c r="M106" s="45">
-        <f>(K106-J106)/6</f>
+      <c r="K109" s="45">
+        <v>2</v>
+      </c>
+      <c r="L109" s="45">
+        <v>0</v>
+      </c>
+      <c r="M109" s="45">
+        <f>(K109-J109)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N109" s="45">
         <v>1</v>
       </c>
-      <c r="Q106" s="43" t="s">
+      <c r="Q109" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1">
-      <c r="B107" s="43" t="s">
+    <row r="110" spans="1:17" s="43" customFormat="1">
+      <c r="B110" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D110" s="43" t="s">
         <v>845</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E110" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F110" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="43" t="s">
+      <c r="G110" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="H107" s="43">
+      <c r="H110" s="43">
         <v>-1</v>
       </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="45">
+      <c r="I110" s="46"/>
+      <c r="J110" s="45">
         <v>-2</v>
       </c>
-      <c r="K107" s="45">
-        <v>2</v>
-      </c>
-      <c r="L107" s="45">
-        <v>0</v>
-      </c>
-      <c r="M107" s="45">
-        <f>(K107-J107)/6</f>
+      <c r="K110" s="45">
+        <v>2</v>
+      </c>
+      <c r="L110" s="45">
+        <v>0</v>
+      </c>
+      <c r="M110" s="45">
+        <f>(K110-J110)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N107" s="45">
+      <c r="N110" s="45">
         <v>1</v>
       </c>
-      <c r="Q107" s="43" t="s">
+      <c r="Q110" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="B108" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="31" t="s">
+    <row r="111" spans="1:17">
+      <c r="B111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E111" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F111" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H108" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
+      <c r="H111" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:17">
       <c r="H112" s="31"/>
@@ -10442,8 +10531,20 @@
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
+    <row r="225" spans="8:9">
+      <c r="H225" s="31"/>
+      <c r="I225" s="31"/>
+    </row>
+    <row r="226" spans="8:9">
+      <c r="H226" s="31"/>
+      <c r="I226" s="31"/>
+    </row>
+    <row r="227" spans="8:9">
+      <c r="H227" s="31"/>
+      <c r="I227" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z151"/>
+  <autoFilter ref="A2:Z154"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -10466,20 +10567,20 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10494,7 +10595,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10529,7 +10630,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -11525,19 +11626,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11556,7 +11657,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11577,7 +11678,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11600,7 +11701,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11623,7 +11724,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11646,7 +11747,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11669,7 +11770,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11692,7 +11793,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11715,7 +11816,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11738,7 +11839,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11761,7 +11862,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11780,7 +11881,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11801,7 +11902,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11824,7 +11925,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11847,7 +11948,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11870,7 +11971,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11893,7 +11994,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11916,7 +12017,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11939,7 +12040,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11962,7 +12063,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11985,7 +12086,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12004,7 +12105,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12027,7 +12128,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12050,7 +12151,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12073,7 +12174,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12096,7 +12197,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12119,7 +12220,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12142,7 +12243,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12165,7 +12266,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12188,7 +12289,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12211,7 +12312,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12230,7 +12331,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12251,7 +12352,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12274,7 +12375,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12297,7 +12398,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12320,7 +12421,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12343,7 +12444,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12366,7 +12467,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12389,7 +12490,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12412,7 +12513,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12435,7 +12536,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12454,7 +12555,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12475,7 +12576,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12498,7 +12599,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12521,7 +12622,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12544,7 +12645,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12567,7 +12668,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12590,7 +12691,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12613,7 +12714,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6">
+    <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12636,7 +12737,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6">
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12659,7 +12760,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6">
+    <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12678,7 +12779,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6">
+    <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12699,7 +12800,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12722,7 +12823,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6">
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12745,7 +12846,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6">
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12768,7 +12869,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6">
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12791,7 +12892,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6">
+    <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12814,7 +12915,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12837,7 +12938,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6">
+    <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12860,7 +12961,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
+    <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12883,7 +12984,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6">
+    <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12902,7 +13003,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6">
+    <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12923,7 +13024,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6">
+    <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12948,7 +13049,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6">
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12971,7 +13072,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6">
+    <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12994,7 +13095,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6">
+    <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13017,7 +13118,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6">
+    <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13040,7 +13141,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6">
+    <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13063,7 +13164,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6">
+    <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13086,7 +13187,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6">
+    <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13109,7 +13210,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6">
+    <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13132,7 +13233,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6">
+    <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13151,7 +13252,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6">
+    <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13172,7 +13273,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6">
+    <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13195,7 +13296,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6">
+    <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13220,7 +13321,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6">
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13243,7 +13344,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6">
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13266,7 +13367,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6">
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13289,7 +13390,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13312,7 +13413,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13335,7 +13436,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13358,7 +13459,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13381,7 +13482,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13404,7 +13505,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13427,7 +13528,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13450,7 +13551,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13469,7 +13570,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13492,7 +13593,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13515,7 +13616,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13538,7 +13639,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13561,7 +13662,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13584,7 +13685,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13607,7 +13708,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13630,7 +13731,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13653,7 +13754,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13676,7 +13777,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13699,7 +13800,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13718,7 +13819,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13743,7 +13844,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13762,7 +13863,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13783,7 +13884,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13808,7 +13909,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13827,7 +13928,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13951,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13875,7 +13976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13898,7 +13999,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13919,7 +14020,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13938,7 +14039,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6">
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13963,7 +14064,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6">
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13986,7 +14087,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14009,7 +14110,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14032,7 +14133,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14055,7 +14156,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14078,7 +14179,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14101,7 +14202,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6">
+    <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14120,7 +14221,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6">
+    <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14143,7 +14244,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6">
+    <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14166,7 +14267,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6">
+    <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14189,7 +14290,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6">
+    <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14208,7 +14309,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14231,7 +14332,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6">
+    <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14254,7 +14355,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6">
+    <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14277,7 +14378,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6">
+    <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14300,7 +14401,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6">
+    <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14323,7 +14424,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6">
+    <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14346,7 +14447,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6">
+    <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14365,7 +14466,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6">
+    <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14390,7 +14491,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6">
+    <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14413,7 +14514,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6">
+    <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14436,7 +14537,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6">
+    <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14459,7 +14560,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14482,7 +14583,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6">
+    <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14505,7 +14606,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6">
+    <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14528,7 +14629,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6">
+    <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14551,7 +14652,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6">
+    <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14574,7 +14675,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14593,7 +14694,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14618,7 +14719,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6">
+    <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14639,7 +14740,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6">
+    <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14662,7 +14763,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6">
+    <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14685,7 +14786,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6">
+    <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14708,7 +14809,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6">
+    <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14731,7 +14832,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6">
+    <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14754,7 +14855,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6">
+    <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14777,7 +14878,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6">
+    <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14800,7 +14901,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6">
+    <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14823,7 +14924,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6">
+    <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14846,7 +14947,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6">
+    <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14869,7 +14970,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6">
+    <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14892,7 +14993,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6">
+    <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14915,7 +15016,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14934,7 +15035,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6">
+    <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14957,7 +15058,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6">
+    <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14976,7 +15077,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6">
+    <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14999,7 +15100,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15022,7 +15123,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15041,7 +15142,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15066,7 +15167,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6">
+    <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15089,7 +15190,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6">
+    <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15112,7 +15213,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6">
+    <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15135,7 +15236,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6">
+    <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15158,7 +15259,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6">
+    <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15181,7 +15282,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6">
+    <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15204,7 +15305,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6">
+    <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15227,7 +15328,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6">
+    <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15250,7 +15351,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6">
+    <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15273,7 +15374,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6">
+    <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15292,7 +15393,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6">
+    <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15317,7 +15418,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6">
+    <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15340,7 +15441,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6">
+    <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15363,7 +15464,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6">
+    <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15386,7 +15487,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6">
+    <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15409,7 +15510,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6">
+    <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15432,7 +15533,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6">
+    <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15455,7 +15556,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6">
+    <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15478,7 +15579,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6">
+    <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15501,7 +15602,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15524,7 +15625,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15543,7 +15644,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15566,7 +15667,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15589,7 +15690,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15612,7 +15713,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15635,7 +15736,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15654,7 +15755,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15677,7 +15778,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15700,7 +15801,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15723,7 +15824,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15746,7 +15847,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15765,7 +15866,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15786,7 +15887,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15809,7 +15910,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15828,7 +15929,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6">
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15851,7 +15952,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6">
+    <row r="193" spans="1:9" ht="15.75">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15876,7 +15977,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6">
+    <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15897,7 +15998,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6">
+    <row r="195" spans="1:9" ht="15.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15922,7 +16023,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6">
+    <row r="196" spans="1:9" ht="15.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15947,7 +16048,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6">
+    <row r="197" spans="1:9" ht="15.75">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15966,7 +16067,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6">
+    <row r="198" spans="1:9" ht="15.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15991,7 +16092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6">
+    <row r="199" spans="1:9" ht="15.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16014,7 +16115,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6">
+    <row r="200" spans="1:9" ht="15.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16037,7 +16138,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6">
+    <row r="201" spans="1:9" ht="15.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16060,7 +16161,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6">
+    <row r="202" spans="1:9" ht="15.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16083,7 +16184,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6">
+    <row r="203" spans="1:9" ht="15.75">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16207,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6">
+    <row r="204" spans="1:9" ht="15.75">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16129,7 +16230,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6">
+    <row r="205" spans="1:9" ht="15.75">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16152,7 +16253,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6">
+    <row r="206" spans="1:9" ht="15.75">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16175,7 +16276,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6">
+    <row r="207" spans="1:9" ht="15.75">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16194,7 +16295,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6">
+    <row r="208" spans="1:9" ht="15.75">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16219,7 +16320,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6">
+    <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16242,7 +16343,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6">
+    <row r="210" spans="1:9" ht="15.75">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16265,7 +16366,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6">
+    <row r="211" spans="1:9" ht="15.75">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16288,7 +16389,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6">
+    <row r="212" spans="1:9" ht="15.75">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16311,7 +16412,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6">
+    <row r="213" spans="1:9" ht="15.75">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16334,7 +16435,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6">
+    <row r="214" spans="1:9" ht="15.75">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16357,7 +16458,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6">
+    <row r="215" spans="1:9" ht="15.75">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16380,7 +16481,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6">
+    <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16403,7 +16504,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6">
+    <row r="217" spans="1:9" ht="15.75">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16422,7 +16523,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6">
+    <row r="218" spans="1:9" ht="15.75">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16443,7 +16544,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6">
+    <row r="219" spans="1:9" ht="15.75">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16466,7 +16567,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6">
+    <row r="220" spans="1:9" ht="15.75">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16489,7 +16590,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6">
+    <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16512,7 +16613,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6">
+    <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16535,7 +16636,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6">
+    <row r="223" spans="1:9" ht="15.75">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16558,7 +16659,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6">
+    <row r="224" spans="1:9" ht="15.75">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16581,7 +16682,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6">
+    <row r="225" spans="1:9" ht="15.75">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16604,7 +16705,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6">
+    <row r="226" spans="1:9" ht="15.75">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16627,7 +16728,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6">
+    <row r="227" spans="1:9" ht="15.75">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16650,7 +16751,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6">
+    <row r="228" spans="1:9" ht="15.75">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16673,7 +16774,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6">
+    <row r="229" spans="1:9" ht="15.75">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16696,7 +16797,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6">
+    <row r="230" spans="1:9" ht="15.75">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16719,7 +16820,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6">
+    <row r="231" spans="1:9" ht="15.75">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16742,7 +16843,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6">
+    <row r="232" spans="1:9" ht="15.75">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16765,7 +16866,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6">
+    <row r="233" spans="1:9" ht="15.75">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16788,7 +16889,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6">
+    <row r="234" spans="1:9" ht="15.75">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16807,7 +16908,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6">
+    <row r="235" spans="1:9" ht="15.75">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16828,7 +16929,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6">
+    <row r="236" spans="1:9" ht="15.75">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16851,7 +16952,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6">
+    <row r="237" spans="1:9" ht="15.75">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16874,7 +16975,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6">
+    <row r="238" spans="1:9" ht="15.75">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16897,7 +16998,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6">
+    <row r="239" spans="1:9" ht="15.75">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16920,7 +17021,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6">
+    <row r="240" spans="1:9" ht="15.75">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16943,7 +17044,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6">
+    <row r="241" spans="1:9" ht="15.75">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16966,7 +17067,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6">
+    <row r="242" spans="1:9" ht="15.75">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16989,7 +17090,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6">
+    <row r="243" spans="1:9" ht="15.75">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17012,7 +17113,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6">
+    <row r="244" spans="1:9" ht="15.75">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17035,7 +17136,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6">
+    <row r="245" spans="1:9" ht="15.75">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17058,7 +17159,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6">
+    <row r="246" spans="1:9" ht="15.75">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17081,7 +17182,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6">
+    <row r="247" spans="1:9" ht="15.75">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17104,7 +17205,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6">
+    <row r="248" spans="1:9" ht="15.75">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17127,7 +17228,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6">
+    <row r="249" spans="1:9" ht="15.75">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17150,7 +17251,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6">
+    <row r="250" spans="1:9" ht="15.75">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17173,7 +17274,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6">
+    <row r="251" spans="1:9" ht="15.75">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17192,7 +17293,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6">
+    <row r="252" spans="1:9" ht="15.75">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17217,7 +17318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6">
+    <row r="253" spans="1:9" ht="15.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17341,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6">
+    <row r="254" spans="1:9" ht="15.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17364,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6">
+    <row r="255" spans="1:9" ht="15.75">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17286,7 +17387,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6">
+    <row r="256" spans="1:9" ht="15.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17309,7 +17410,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6">
+    <row r="257" spans="1:9" ht="15.75">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17328,7 +17429,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6">
+    <row r="258" spans="1:9" ht="15.75">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17353,7 +17454,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6">
+    <row r="259" spans="1:9" ht="15.75">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17376,7 +17477,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6">
+    <row r="260" spans="1:9" ht="15.75">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17395,7 +17496,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6">
+    <row r="261" spans="1:9" ht="15.75">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17414,7 +17515,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6">
+    <row r="262" spans="1:9" ht="15.75">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17433,7 +17534,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6">
+    <row r="263" spans="1:9" ht="15.75">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17454,7 +17555,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6">
+    <row r="264" spans="1:9" ht="15.75">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17477,7 +17578,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6">
+    <row r="265" spans="1:9" ht="15.75">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17500,7 +17601,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6">
+    <row r="266" spans="1:9" ht="15.75">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17523,7 +17624,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6">
+    <row r="267" spans="1:9" ht="15.75">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17546,7 +17647,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6">
+    <row r="268" spans="1:9" ht="15.75">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17569,7 +17670,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6">
+    <row r="269" spans="1:9" ht="15.75">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17592,7 +17693,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6">
+    <row r="270" spans="1:9" ht="15.75">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17615,7 +17716,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6">
+    <row r="271" spans="1:9" ht="15.75">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17638,7 +17739,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6">
+    <row r="272" spans="1:9" ht="15.75">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17661,7 +17762,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6">
+    <row r="273" spans="1:9" ht="15.75">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17684,7 +17785,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6">
+    <row r="274" spans="1:9" ht="15.75">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17703,7 +17804,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6">
+    <row r="275" spans="1:9" ht="15.75">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17726,7 +17827,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6">
+    <row r="276" spans="1:9" ht="15.75">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17745,7 +17846,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6">
+    <row r="277" spans="1:9" ht="15.75">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17770,7 +17871,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6">
+    <row r="278" spans="1:9" ht="15.75">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17793,7 +17894,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6">
+    <row r="279" spans="1:9" ht="15.75">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17816,7 +17917,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6">
+    <row r="280" spans="1:9" ht="15.75">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17839,7 +17940,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6">
+    <row r="281" spans="1:9" ht="15.75">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17862,7 +17963,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6">
+    <row r="282" spans="1:9" ht="15.75">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17885,7 +17986,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6">
+    <row r="283" spans="1:9" ht="15.75">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17908,7 +18009,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6">
+    <row r="284" spans="1:9" ht="15.75">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17931,7 +18032,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6">
+    <row r="285" spans="1:9" ht="15.75">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17954,7 +18055,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6">
+    <row r="286" spans="1:9" ht="15.75">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17977,7 +18078,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6">
+    <row r="287" spans="1:9" ht="15.75">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18000,7 +18101,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6">
+    <row r="288" spans="1:9" ht="15.75">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18019,7 +18120,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6">
+    <row r="289" spans="1:9" ht="15.75">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18042,7 +18143,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6">
+    <row r="290" spans="1:9" ht="15.75">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18061,7 +18162,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6">
+    <row r="291" spans="1:9" ht="15.75">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18082,7 +18183,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6">
+    <row r="292" spans="1:9" ht="15.75">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18101,7 +18202,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6">
+    <row r="293" spans="1:9" ht="15.75">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18122,7 +18223,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6">
+    <row r="294" spans="1:9" ht="15.75">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18141,7 +18242,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6">
+    <row r="295" spans="1:9" ht="15.75">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18162,7 +18263,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6">
+    <row r="296" spans="1:9" ht="15.75">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18181,7 +18282,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6">
+    <row r="297" spans="1:9" ht="15.75">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18204,7 +18305,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6">
+    <row r="298" spans="1:9" ht="15.75">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18223,7 +18324,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6">
+    <row r="299" spans="1:9" ht="15.75">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18248,7 +18349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6">
+    <row r="300" spans="1:9" ht="15.75">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18271,7 +18372,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6">
+    <row r="301" spans="1:9" ht="15.75">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18294,7 +18395,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6">
+    <row r="302" spans="1:9" ht="15.75">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18317,7 +18418,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6">
+    <row r="303" spans="1:9" ht="15.75">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18340,7 +18441,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6">
+    <row r="304" spans="1:9" ht="15.75">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18363,7 +18464,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6">
+    <row r="305" spans="1:9" ht="15.75">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18386,7 +18487,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6">
+    <row r="306" spans="1:9" ht="15.75">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18409,7 +18510,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6">
+    <row r="307" spans="1:9" ht="15.75">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18432,7 +18533,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6">
+    <row r="308" spans="1:9" ht="15.75">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18451,7 +18552,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6">
+    <row r="309" spans="1:9" ht="15.75">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18474,7 +18575,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6">
+    <row r="310" spans="1:9" ht="15.75">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18497,7 +18598,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6">
+    <row r="311" spans="1:9" ht="15.75">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18520,7 +18621,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6">
+    <row r="312" spans="1:9" ht="15.75">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18543,7 +18644,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6">
+    <row r="313" spans="1:9" ht="15.75">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18562,7 +18663,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6">
+    <row r="314" spans="1:9" ht="15.75">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18585,7 +18686,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6">
+    <row r="315" spans="1:9" ht="15.75">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18608,7 +18709,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6">
+    <row r="316" spans="1:9" ht="15.75">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18633,7 +18734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6">
+    <row r="317" spans="1:9" ht="15.75">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18652,7 +18753,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6">
+    <row r="318" spans="1:9" ht="15.75">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18677,7 +18778,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6">
+    <row r="319" spans="1:9" ht="15.75">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18700,7 +18801,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6">
+    <row r="320" spans="1:9" ht="15.75">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18719,7 +18820,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6">
+    <row r="321" spans="1:9" ht="15.75">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18740,7 +18841,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6">
+    <row r="322" spans="1:9" ht="15.75">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18761,7 +18862,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6">
+    <row r="323" spans="1:9" ht="15.75">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18784,7 +18885,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6">
+    <row r="324" spans="1:9" ht="15.75">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18803,7 +18904,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6">
+    <row r="325" spans="1:9" ht="15.75">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18822,7 +18923,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6">
+    <row r="326" spans="1:9" ht="15.75">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18847,7 +18948,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6">
+    <row r="327" spans="1:9" ht="15.75">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19204,7 +19305,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6">
+    <row r="344" spans="1:16" ht="15.75">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19567,7 +19668,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19695,14 +19796,14 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_calibration_nsga2.xlsx
+++ b/projects/office_calibration_nsga2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6894,17 +6894,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6925,17 +6925,17 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6967,7 +6967,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="30">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>579</v>
@@ -7196,7 +7196,7 @@
         <v>564</v>
       </c>
       <c r="B25" s="30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>578</v>
@@ -7300,7 +7300,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7406,37 +7406,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7471,7 +7471,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="18">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8936,7 +8936,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N64" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q64" s="43" t="s">
         <v>773</v>
@@ -9026,7 +9026,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N68" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q68" s="43" t="s">
         <v>773</v>
@@ -9116,7 +9116,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N72" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q72" s="43" t="s">
         <v>773</v>
@@ -10567,20 +10567,20 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10595,7 +10595,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -11626,19 +11626,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11657,7 +11657,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11678,7 +11678,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11770,7 +11770,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11839,7 +11839,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11881,7 +11881,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11902,7 +11902,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12105,7 +12105,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12331,7 +12331,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12352,7 +12352,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12490,7 +12490,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12555,7 +12555,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12576,7 +12576,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12668,7 +12668,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12760,7 +12760,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12779,7 +12779,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12800,7 +12800,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12869,7 +12869,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12961,7 +12961,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -13003,7 +13003,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -13024,7 +13024,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -13049,7 +13049,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13252,7 +13252,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13273,7 +13273,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13321,7 +13321,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13367,7 +13367,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13436,7 +13436,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13482,7 +13482,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13570,7 +13570,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13708,7 +13708,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13777,7 +13777,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13819,7 +13819,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13844,7 +13844,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13863,7 +13863,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13884,7 +13884,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13909,7 +13909,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13928,7 +13928,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13976,7 +13976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -14020,7 +14020,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -14039,7 +14039,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14064,7 +14064,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14179,7 +14179,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14202,7 +14202,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14221,7 +14221,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14309,7 +14309,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14378,7 +14378,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14466,7 +14466,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14491,7 +14491,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14583,7 +14583,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14719,7 +14719,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14740,7 +14740,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14763,7 +14763,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14832,7 +14832,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14970,7 +14970,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15077,7 +15077,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15123,7 +15123,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15142,7 +15142,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15167,7 +15167,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15259,7 +15259,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15305,7 +15305,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15351,7 +15351,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15374,7 +15374,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15393,7 +15393,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15418,7 +15418,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15487,7 +15487,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15644,7 +15644,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15667,7 +15667,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15755,7 +15755,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15778,7 +15778,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15801,7 +15801,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15824,7 +15824,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15847,7 +15847,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15866,7 +15866,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15887,7 +15887,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15910,7 +15910,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15929,7 +15929,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15952,7 +15952,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15977,7 +15977,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15998,7 +15998,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -16023,7 +16023,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -16048,7 +16048,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16067,7 +16067,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16092,7 +16092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16184,7 +16184,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16207,7 +16207,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16253,7 +16253,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16276,7 +16276,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16295,7 +16295,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16320,7 +16320,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16523,7 +16523,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16544,7 +16544,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16613,7 +16613,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16636,7 +16636,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16774,7 +16774,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16908,7 +16908,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16929,7 +16929,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16998,7 +16998,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -17044,7 +17044,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17067,7 +17067,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17090,7 +17090,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17136,7 +17136,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17182,7 +17182,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17228,7 +17228,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17251,7 +17251,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17293,7 +17293,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17318,7 +17318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17341,7 +17341,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17364,7 +17364,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17387,7 +17387,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17429,7 +17429,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17454,7 +17454,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17477,7 +17477,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17496,7 +17496,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17515,7 +17515,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17534,7 +17534,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17555,7 +17555,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17670,7 +17670,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17762,7 +17762,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17804,7 +17804,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17827,7 +17827,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17846,7 +17846,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17871,7 +17871,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17894,7 +17894,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17940,7 +17940,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17963,7 +17963,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17986,7 +17986,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18078,7 +18078,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18120,7 +18120,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18183,7 +18183,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18202,7 +18202,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18223,7 +18223,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18242,7 +18242,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18263,7 +18263,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18282,7 +18282,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18305,7 +18305,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18324,7 +18324,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18349,7 +18349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18372,7 +18372,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18441,7 +18441,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18510,7 +18510,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18533,7 +18533,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18552,7 +18552,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18663,7 +18663,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18686,7 +18686,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18734,7 +18734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18753,7 +18753,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18778,7 +18778,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18801,7 +18801,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18820,7 +18820,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18841,7 +18841,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18862,7 +18862,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18885,7 +18885,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18904,7 +18904,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18923,7 +18923,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18948,7 +18948,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19305,7 +19305,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19668,7 +19668,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19796,14 +19796,14 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
